--- a/output/experiments/Aug2023_2/LOG-MPC-MSC-6h-bat-Apr-Jun.xlsx
+++ b/output/experiments/Aug2023_2/LOG-MPC-MSC-6h-bat-Apr-Jun.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="142">
   <si>
     <t>status</t>
   </si>
@@ -163,7 +163,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>R</t>
+    <t>D</t>
   </si>
   <si>
     <t>Sum</t>
@@ -254,6 +254,192 @@
   </si>
   <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-04-01-04-08-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-08-04-15-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-08-04-15-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-08-04-15-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-08-04-15-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-04-08-04-15-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-15-04-22-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-15-04-22-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-15-04-22-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-15-04-22-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-04-15-04-22-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-22-04-29-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-22-04-29-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-22-04-29-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-22-04-29-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-04-22-04-29-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-29-05-06-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-29-05-06-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-29-05-06-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-29-05-06-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-04-29-05-06-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-06-05-13-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-06-05-13-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-06-05-13-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-06-05-13-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-05-06-05-13-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-13-05-20-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-13-05-20-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-13-05-20-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-13-05-20-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-05-13-05-20-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-20-05-27-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-20-05-27-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-20-05-27-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-20-05-27-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-05-20-05-27-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-27-06-03-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-27-06-03-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-27-06-03-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-27-06-03-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-05-27-06-03-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-03-06-10-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-03-06-10-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-03-06-10-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-03-06-10-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-06-03-06-10-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-10-06-17-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-10-06-17-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-10-06-17-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-10-06-17-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-06-10-06-17-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-17-06-24-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-17-06-24-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-17-06-24-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-17-06-24-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-06-17-06-24-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-24-07-01-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-24-07-01-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-24-07-01-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-24-07-01-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-06-24-07-01-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
   </si>
 </sst>
 </file>
@@ -821,8 +1007,92 @@
       <c r="R2" t="s">
         <v>75</v>
       </c>
+      <c r="S2">
+        <v>276.6981705127608</v>
+      </c>
+      <c r="T2">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U2">
+        <v>577.9955500999999</v>
+      </c>
       <c r="V2" t="s">
         <v>77</v>
+      </c>
+      <c r="W2">
+        <v>276.6981705127608</v>
+      </c>
+      <c r="X2">
+        <v>258.6981705127608</v>
+      </c>
+      <c r="Y2">
+        <v>18</v>
+      </c>
+      <c r="Z2">
+        <v>18</v>
+      </c>
+      <c r="AA2">
+        <v>438</v>
+      </c>
+      <c r="AB2">
+        <v>5.518839676098123</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0.1153944129776647</v>
+      </c>
+      <c r="AF2">
+        <v>0.1153944129776647</v>
+      </c>
+      <c r="AG2">
+        <v>0.1078876794501216</v>
+      </c>
+      <c r="AI2">
+        <v>70.20880913593197</v>
+      </c>
+      <c r="AJ2">
+        <v>188.4893613768288</v>
+      </c>
+      <c r="AL2">
+        <v>55.65424739195231</v>
+      </c>
+      <c r="AM2">
+        <v>1904.748211028318</v>
+      </c>
+      <c r="AN2">
+        <v>493.098992946085</v>
+      </c>
+      <c r="AO2">
+        <v>2397.847203974403</v>
+      </c>
+      <c r="AP2">
+        <v>1074.088586852481</v>
+      </c>
+      <c r="AQ2">
+        <v>1365.106485558205</v>
+      </c>
+      <c r="AR2">
+        <v>17.84391798180097</v>
+      </c>
+      <c r="AS2">
+        <v>191.0627454035346</v>
+      </c>
+      <c r="AT2">
+        <v>2.573384026705762</v>
+      </c>
+      <c r="AU2">
+        <v>117.01468189322</v>
+      </c>
+      <c r="AV2">
+        <v>3.552713678800501E-15</v>
+      </c>
+      <c r="AW2">
+        <v>6.024258753709678E-16</v>
       </c>
     </row>
     <row r="3" spans="1:49">
@@ -880,8 +1150,92 @@
       <c r="R3" t="s">
         <v>75</v>
       </c>
+      <c r="S3">
+        <v>307.1352510427187</v>
+      </c>
+      <c r="T3">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U3">
+        <v>618.7772781</v>
+      </c>
       <c r="V3" t="s">
         <v>78</v>
+      </c>
+      <c r="W3">
+        <v>307.1352510427187</v>
+      </c>
+      <c r="X3">
+        <v>289.1352510427187</v>
+      </c>
+      <c r="Y3">
+        <v>18</v>
+      </c>
+      <c r="Z3">
+        <v>18</v>
+      </c>
+      <c r="AA3">
+        <v>438</v>
+      </c>
+      <c r="AB3">
+        <v>5.518839676098123</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0.1281058890146772</v>
+      </c>
+      <c r="AF3">
+        <v>0.1281058890146772</v>
+      </c>
+      <c r="AG3">
+        <v>0.1205981021538864</v>
+      </c>
+      <c r="AI3">
+        <v>106.29262128</v>
+      </c>
+      <c r="AJ3">
+        <v>182.8426297627186</v>
+      </c>
+      <c r="AL3">
+        <v>55.65424739195231</v>
+      </c>
+      <c r="AM3">
+        <v>1904.748211028318</v>
+      </c>
+      <c r="AN3">
+        <v>492.7625779372854</v>
+      </c>
+      <c r="AO3">
+        <v>2397.510788965603</v>
+      </c>
+      <c r="AP3">
+        <v>1074.088586852481</v>
+      </c>
+      <c r="AQ3">
+        <v>1371.304478428505</v>
+      </c>
+      <c r="AR3">
+        <v>22.69976655175856</v>
+      </c>
+      <c r="AS3">
+        <v>186.0837094428361</v>
+      </c>
+      <c r="AT3">
+        <v>3.24107968011743</v>
+      </c>
+      <c r="AU3">
+        <v>177.1543688</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:49">
@@ -939,16 +1293,100 @@
       <c r="R4" t="s">
         <v>75</v>
       </c>
+      <c r="S4">
+        <v>306.297112397306</v>
+      </c>
+      <c r="T4">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U4">
+        <v>629.0924681</v>
+      </c>
       <c r="V4" t="s">
         <v>79</v>
+      </c>
+      <c r="W4">
+        <v>306.297112397306</v>
+      </c>
+      <c r="X4">
+        <v>288.297112397306</v>
+      </c>
+      <c r="Y4">
+        <v>18</v>
+      </c>
+      <c r="Z4">
+        <v>18</v>
+      </c>
+      <c r="AA4">
+        <v>438</v>
+      </c>
+      <c r="AB4">
+        <v>5.518839676098123</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0.1277242797685772</v>
+      </c>
+      <c r="AF4">
+        <v>0.1277242797685772</v>
+      </c>
+      <c r="AG4">
+        <v>0.1202183747411336</v>
+      </c>
+      <c r="AI4">
+        <v>103.7247351205631</v>
+      </c>
+      <c r="AJ4">
+        <v>184.5723772767429</v>
+      </c>
+      <c r="AL4">
+        <v>55.65424739195231</v>
+      </c>
+      <c r="AM4">
+        <v>1904.748211028318</v>
+      </c>
+      <c r="AN4">
+        <v>493.3636667781861</v>
+      </c>
+      <c r="AO4">
+        <v>2398.111877806504</v>
+      </c>
+      <c r="AP4">
+        <v>1074.088586852481</v>
+      </c>
+      <c r="AQ4">
+        <v>1377.79723445878</v>
+      </c>
+      <c r="AR4">
+        <v>29.0534311705776</v>
+      </c>
+      <c r="AS4">
+        <v>188.8610589227716</v>
+      </c>
+      <c r="AT4">
+        <v>4.288681646028756</v>
+      </c>
+      <c r="AU4">
+        <v>172.8745585342718</v>
+      </c>
+      <c r="AV4">
+        <v>3.552713678800501E-15</v>
+      </c>
+      <c r="AW4">
+        <v>6.024258753709678E-16</v>
       </c>
     </row>
     <row r="5" spans="1:49">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
@@ -997,14 +1435,101 @@
       </c>
       <c r="R5" t="s">
         <v>75</v>
+      </c>
+      <c r="S5">
+        <v>306.4726394107361</v>
+      </c>
+      <c r="T5">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U5">
+        <v>466.7515978999999</v>
+      </c>
+      <c r="V5" t="s">
+        <v>80</v>
+      </c>
+      <c r="W5">
+        <v>306.4726394107361</v>
+      </c>
+      <c r="X5">
+        <v>288.4726394107361</v>
+      </c>
+      <c r="Y5">
+        <v>18</v>
+      </c>
+      <c r="Z5">
+        <v>18</v>
+      </c>
+      <c r="AA5">
+        <v>438</v>
+      </c>
+      <c r="AB5">
+        <v>5.518839676098123</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0.1278048394035581</v>
+      </c>
+      <c r="AF5">
+        <v>0.1278048394035581</v>
+      </c>
+      <c r="AG5">
+        <v>0.120298501762171</v>
+      </c>
+      <c r="AI5">
+        <v>102.7390913861412</v>
+      </c>
+      <c r="AJ5">
+        <v>185.7335480245949</v>
+      </c>
+      <c r="AL5">
+        <v>55.65424739195231</v>
+      </c>
+      <c r="AM5">
+        <v>1904.748211028318</v>
+      </c>
+      <c r="AN5">
+        <v>493.225456017376</v>
+      </c>
+      <c r="AO5">
+        <v>2397.973667045694</v>
+      </c>
+      <c r="AP5">
+        <v>1074.088586852481</v>
+      </c>
+      <c r="AQ5">
+        <v>1384.210668024198</v>
+      </c>
+      <c r="AR5">
+        <v>35.18532146973252</v>
+      </c>
+      <c r="AS5">
+        <v>190.8251357077583</v>
+      </c>
+      <c r="AT5">
+        <v>5.091587683163425</v>
+      </c>
+      <c r="AU5">
+        <v>171.231818976902</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:49">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
@@ -1053,14 +1578,101 @@
       </c>
       <c r="R6" t="s">
         <v>76</v>
+      </c>
+      <c r="S6">
+        <v>355.892197220432</v>
+      </c>
+      <c r="T6">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U6">
+        <v>380.9785071000001</v>
+      </c>
+      <c r="V6" t="s">
+        <v>81</v>
+      </c>
+      <c r="W6">
+        <v>355.892197220432</v>
+      </c>
+      <c r="X6">
+        <v>337.892197220432</v>
+      </c>
+      <c r="Y6">
+        <v>18</v>
+      </c>
+      <c r="Z6">
+        <v>18</v>
+      </c>
+      <c r="AA6">
+        <v>438</v>
+      </c>
+      <c r="AB6">
+        <v>5.518839676098123</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0.1483726306561738</v>
+      </c>
+      <c r="AF6">
+        <v>0.1483726306561738</v>
+      </c>
+      <c r="AG6">
+        <v>0.1408683712971046</v>
+      </c>
+      <c r="AI6">
+        <v>97.25001789551645</v>
+      </c>
+      <c r="AJ6">
+        <v>240.6421793249155</v>
+      </c>
+      <c r="AL6">
+        <v>55.65424739195231</v>
+      </c>
+      <c r="AM6">
+        <v>1904.748211028318</v>
+      </c>
+      <c r="AN6">
+        <v>493.8895676948114</v>
+      </c>
+      <c r="AO6">
+        <v>2398.637778723129</v>
+      </c>
+      <c r="AP6">
+        <v>1074.088586852481</v>
+      </c>
+      <c r="AQ6">
+        <v>1344.277383608497</v>
+      </c>
+      <c r="AR6">
+        <v>14.40752305516879</v>
+      </c>
+      <c r="AS6">
+        <v>242.0009590395896</v>
+      </c>
+      <c r="AT6">
+        <v>1.358779714674054</v>
+      </c>
+      <c r="AU6">
+        <v>162.0833631591941</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:49">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
@@ -1109,14 +1721,101 @@
       </c>
       <c r="R7" t="s">
         <v>75</v>
+      </c>
+      <c r="S7">
+        <v>253.7566714959211</v>
+      </c>
+      <c r="T7">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U7">
+        <v>527.7564749999999</v>
+      </c>
+      <c r="V7" t="s">
+        <v>82</v>
+      </c>
+      <c r="W7">
+        <v>253.7566714959211</v>
+      </c>
+      <c r="X7">
+        <v>235.7566714959211</v>
+      </c>
+      <c r="Y7">
+        <v>18</v>
+      </c>
+      <c r="Z7">
+        <v>18</v>
+      </c>
+      <c r="AA7">
+        <v>438</v>
+      </c>
+      <c r="AB7">
+        <v>5.478277883892563</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0.1040394061252426</v>
+      </c>
+      <c r="AF7">
+        <v>0.1040394061252426</v>
+      </c>
+      <c r="AG7">
+        <v>0.09665946494294955</v>
+      </c>
+      <c r="AI7">
+        <v>64.86692878090908</v>
+      </c>
+      <c r="AJ7">
+        <v>171.3361083727085</v>
+      </c>
+      <c r="AL7">
+        <v>58.3725782414307</v>
+      </c>
+      <c r="AM7">
+        <v>1918.851183308494</v>
+      </c>
+      <c r="AN7">
+        <v>520.1926458195653</v>
+      </c>
+      <c r="AO7">
+        <v>2439.04382912806</v>
+      </c>
+      <c r="AP7">
+        <v>1209.562473137566</v>
+      </c>
+      <c r="AQ7">
+        <v>1269.542940471411</v>
+      </c>
+      <c r="AR7">
+        <v>15.51025477948169</v>
+      </c>
+      <c r="AS7">
+        <v>173.801101029796</v>
+      </c>
+      <c r="AT7">
+        <v>2.464992657087493</v>
+      </c>
+      <c r="AU7">
+        <v>108.1115479681818</v>
+      </c>
+      <c r="AV7">
+        <v>2.632372616578889</v>
+      </c>
+      <c r="AW7">
+        <v>0.4463656576964899</v>
       </c>
     </row>
     <row r="8" spans="1:49">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
@@ -1165,14 +1864,101 @@
       </c>
       <c r="R8" t="s">
         <v>75</v>
+      </c>
+      <c r="S8">
+        <v>286.984986676546</v>
+      </c>
+      <c r="T8">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U8">
+        <v>739.6264641</v>
+      </c>
+      <c r="V8" t="s">
+        <v>83</v>
+      </c>
+      <c r="W8">
+        <v>286.984986676546</v>
+      </c>
+      <c r="X8">
+        <v>268.984986676546</v>
+      </c>
+      <c r="Y8">
+        <v>18</v>
+      </c>
+      <c r="Z8">
+        <v>18</v>
+      </c>
+      <c r="AA8">
+        <v>438</v>
+      </c>
+      <c r="AB8">
+        <v>5.478277883892563</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0.1176763300172821</v>
+      </c>
+      <c r="AF8">
+        <v>0.1176763300172821</v>
+      </c>
+      <c r="AG8">
+        <v>0.1102955469148601</v>
+      </c>
+      <c r="AI8">
+        <v>98.65036134346543</v>
+      </c>
+      <c r="AJ8">
+        <v>170.3346253330806</v>
+      </c>
+      <c r="AL8">
+        <v>58.3725782414307</v>
+      </c>
+      <c r="AM8">
+        <v>1918.851183308494</v>
+      </c>
+      <c r="AN8">
+        <v>519.9144260064708</v>
+      </c>
+      <c r="AO8">
+        <v>2438.765609314965</v>
+      </c>
+      <c r="AP8">
+        <v>1209.562473137566</v>
+      </c>
+      <c r="AQ8">
+        <v>1283.795722548141</v>
+      </c>
+      <c r="AR8">
+        <v>29.92764744967756</v>
+      </c>
+      <c r="AS8">
+        <v>174.6831354246322</v>
+      </c>
+      <c r="AT8">
+        <v>4.348510091551636</v>
+      </c>
+      <c r="AU8">
+        <v>164.4172689057758</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:49">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
@@ -1221,14 +2007,101 @@
       </c>
       <c r="R9" t="s">
         <v>75</v>
+      </c>
+      <c r="S9">
+        <v>291.7127883693483</v>
+      </c>
+      <c r="T9">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U9">
+        <v>649.5299656</v>
+      </c>
+      <c r="V9" t="s">
+        <v>84</v>
+      </c>
+      <c r="W9">
+        <v>291.7127883693483</v>
+      </c>
+      <c r="X9">
+        <v>273.7127883693483</v>
+      </c>
+      <c r="Y9">
+        <v>18</v>
+      </c>
+      <c r="Z9">
+        <v>18</v>
+      </c>
+      <c r="AA9">
+        <v>438</v>
+      </c>
+      <c r="AB9">
+        <v>5.478277883892563</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0.1196031419324731</v>
+      </c>
+      <c r="AF9">
+        <v>0.1196031419324731</v>
+      </c>
+      <c r="AG9">
+        <v>0.1122230864785494</v>
+      </c>
+      <c r="AI9">
+        <v>103.9702180862212</v>
+      </c>
+      <c r="AJ9">
+        <v>169.7425702831272</v>
+      </c>
+      <c r="AL9">
+        <v>58.3725782414307</v>
+      </c>
+      <c r="AM9">
+        <v>1918.851183308494</v>
+      </c>
+      <c r="AN9">
+        <v>520.1548800443123</v>
+      </c>
+      <c r="AO9">
+        <v>2439.006063352807</v>
+      </c>
+      <c r="AP9">
+        <v>1209.562473137566</v>
+      </c>
+      <c r="AQ9">
+        <v>1276.305805165717</v>
+      </c>
+      <c r="AR9">
+        <v>21.82473302420161</v>
+      </c>
+      <c r="AS9">
+        <v>173.264640265958</v>
+      </c>
+      <c r="AT9">
+        <v>3.522069982830835</v>
+      </c>
+      <c r="AU9">
+        <v>173.2836968103686</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:49">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
@@ -1277,14 +2150,101 @@
       </c>
       <c r="R10" t="s">
         <v>75</v>
+      </c>
+      <c r="S10">
+        <v>290.6684811211565</v>
+      </c>
+      <c r="T10">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U10">
+        <v>631.7947683</v>
+      </c>
+      <c r="V10" t="s">
+        <v>85</v>
+      </c>
+      <c r="W10">
+        <v>290.6684811211565</v>
+      </c>
+      <c r="X10">
+        <v>272.6684811211565</v>
+      </c>
+      <c r="Y10">
+        <v>18</v>
+      </c>
+      <c r="Z10">
+        <v>18</v>
+      </c>
+      <c r="AA10">
+        <v>438</v>
+      </c>
+      <c r="AB10">
+        <v>5.478277883892563</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0.119178562940572</v>
+      </c>
+      <c r="AF10">
+        <v>0.119178562940572</v>
+      </c>
+      <c r="AG10">
+        <v>0.1117982851593146</v>
+      </c>
+      <c r="AI10">
+        <v>102.3222</v>
+      </c>
+      <c r="AJ10">
+        <v>170.3462811211565</v>
+      </c>
+      <c r="AL10">
+        <v>58.3725782414307</v>
+      </c>
+      <c r="AM10">
+        <v>1918.851183308494</v>
+      </c>
+      <c r="AN10">
+        <v>520.0814061547412</v>
+      </c>
+      <c r="AO10">
+        <v>2438.932589463236</v>
+      </c>
+      <c r="AP10">
+        <v>1209.562473137566</v>
+      </c>
+      <c r="AQ10">
+        <v>1281.005019966894</v>
+      </c>
+      <c r="AR10">
+        <v>26.60551210587478</v>
+      </c>
+      <c r="AS10">
+        <v>174.4445247922292</v>
+      </c>
+      <c r="AT10">
+        <v>4.098243671072693</v>
+      </c>
+      <c r="AU10">
+        <v>170.537</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:49">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
@@ -1333,14 +2293,101 @@
       </c>
       <c r="R11" t="s">
         <v>76</v>
+      </c>
+      <c r="S11">
+        <v>318.3295439663169</v>
+      </c>
+      <c r="T11">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U11">
+        <v>284.1700234</v>
+      </c>
+      <c r="V11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W11">
+        <v>318.3295439663169</v>
+      </c>
+      <c r="X11">
+        <v>300.3295439663169</v>
+      </c>
+      <c r="Y11">
+        <v>18</v>
+      </c>
+      <c r="Z11">
+        <v>18</v>
+      </c>
+      <c r="AA11">
+        <v>438</v>
+      </c>
+      <c r="AB11">
+        <v>5.478277883892563</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0.1305582127644113</v>
+      </c>
+      <c r="AF11">
+        <v>0.1305582127644113</v>
+      </c>
+      <c r="AG11">
+        <v>0.1231757756821402</v>
+      </c>
+      <c r="AI11">
+        <v>75.13345466341893</v>
+      </c>
+      <c r="AJ11">
+        <v>225.1960893028979</v>
+      </c>
+      <c r="AL11">
+        <v>58.3725782414307</v>
+      </c>
+      <c r="AM11">
+        <v>1918.851183308494</v>
+      </c>
+      <c r="AN11">
+        <v>519.3680387999889</v>
+      </c>
+      <c r="AO11">
+        <v>2438.219222108483</v>
+      </c>
+      <c r="AP11">
+        <v>1209.562473137566</v>
+      </c>
+      <c r="AQ11">
+        <v>1238.095120872059</v>
+      </c>
+      <c r="AR11">
+        <v>4.858743224216926</v>
+      </c>
+      <c r="AS11">
+        <v>225.5927214647587</v>
+      </c>
+      <c r="AT11">
+        <v>0.3966321618607876</v>
+      </c>
+      <c r="AU11">
+        <v>125.2224244390316</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:49">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
@@ -1389,14 +2436,101 @@
       </c>
       <c r="R12" t="s">
         <v>75</v>
+      </c>
+      <c r="S12">
+        <v>263.5039689073798</v>
+      </c>
+      <c r="T12">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U12">
+        <v>619.7662446000002</v>
+      </c>
+      <c r="V12" t="s">
+        <v>87</v>
+      </c>
+      <c r="W12">
+        <v>263.5039689073798</v>
+      </c>
+      <c r="X12">
+        <v>245.5039689073798</v>
+      </c>
+      <c r="Y12">
+        <v>18</v>
+      </c>
+      <c r="Z12">
+        <v>18</v>
+      </c>
+      <c r="AA12">
+        <v>438</v>
+      </c>
+      <c r="AB12">
+        <v>5.57428960363978</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0.1130741747779277</v>
+      </c>
+      <c r="AF12">
+        <v>0.1130741747779277</v>
+      </c>
+      <c r="AG12">
+        <v>0.1053500590674805</v>
+      </c>
+      <c r="AI12">
+        <v>70.44879641733804</v>
+      </c>
+      <c r="AJ12">
+        <v>175.0551724900418</v>
+      </c>
+      <c r="AL12">
+        <v>54.5096870342772</v>
+      </c>
+      <c r="AM12">
+        <v>1885.800836959762</v>
+      </c>
+      <c r="AN12">
+        <v>444.5630098238996</v>
+      </c>
+      <c r="AO12">
+        <v>2330.363846783662</v>
+      </c>
+      <c r="AP12">
+        <v>1088.460369714806</v>
+      </c>
+      <c r="AQ12">
+        <v>1292.997425687366</v>
+      </c>
+      <c r="AR12">
+        <v>27.0590426801069</v>
+      </c>
+      <c r="AS12">
+        <v>178.5772607730818</v>
+      </c>
+      <c r="AT12">
+        <v>3.522088283040041</v>
+      </c>
+      <c r="AU12">
+        <v>117.4146606955634</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:49">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -1445,14 +2579,101 @@
       </c>
       <c r="R13" t="s">
         <v>75</v>
+      </c>
+      <c r="S13">
+        <v>292.3282459800822</v>
+      </c>
+      <c r="T13">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U13">
+        <v>593.9897831000001</v>
+      </c>
+      <c r="V13" t="s">
+        <v>88</v>
+      </c>
+      <c r="W13">
+        <v>292.3282459800822</v>
+      </c>
+      <c r="X13">
+        <v>274.3282459800822</v>
+      </c>
+      <c r="Y13">
+        <v>18</v>
+      </c>
+      <c r="Z13">
+        <v>18</v>
+      </c>
+      <c r="AA13">
+        <v>438</v>
+      </c>
+      <c r="AB13">
+        <v>5.57428960363978</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0.1254469482155952</v>
+      </c>
+      <c r="AF13">
+        <v>0.1254469482155952</v>
+      </c>
+      <c r="AG13">
+        <v>0.1177226003329258</v>
+      </c>
+      <c r="AI13">
+        <v>101.6946618</v>
+      </c>
+      <c r="AJ13">
+        <v>172.6335841800822</v>
+      </c>
+      <c r="AL13">
+        <v>54.5096870342772</v>
+      </c>
+      <c r="AM13">
+        <v>1885.800836959762</v>
+      </c>
+      <c r="AN13">
+        <v>444.4929656258702</v>
+      </c>
+      <c r="AO13">
+        <v>2330.293802585632</v>
+      </c>
+      <c r="AP13">
+        <v>1088.460369714806</v>
+      </c>
+      <c r="AQ13">
+        <v>1303.381432252054</v>
+      </c>
+      <c r="AR13">
+        <v>36.41992536833865</v>
+      </c>
+      <c r="AS13">
+        <v>177.0836907273639</v>
+      </c>
+      <c r="AT13">
+        <v>4.45010654728176</v>
+      </c>
+      <c r="AU13">
+        <v>169.491103</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:49">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
@@ -1501,14 +2722,101 @@
       </c>
       <c r="R14" t="s">
         <v>75</v>
+      </c>
+      <c r="S14">
+        <v>294.0281938793182</v>
+      </c>
+      <c r="T14">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U14">
+        <v>528.4504702000002</v>
+      </c>
+      <c r="V14" t="s">
+        <v>89</v>
+      </c>
+      <c r="W14">
+        <v>294.0281938793182</v>
+      </c>
+      <c r="X14">
+        <v>276.0281938793182</v>
+      </c>
+      <c r="Y14">
+        <v>18</v>
+      </c>
+      <c r="Z14">
+        <v>18</v>
+      </c>
+      <c r="AA14">
+        <v>438</v>
+      </c>
+      <c r="AB14">
+        <v>5.57428960363978</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0.1261726550920931</v>
+      </c>
+      <c r="AF14">
+        <v>0.1261726550920931</v>
+      </c>
+      <c r="AG14">
+        <v>0.1184485393816458</v>
+      </c>
+      <c r="AI14">
+        <v>103.9275199921966</v>
+      </c>
+      <c r="AJ14">
+        <v>172.1006738871216</v>
+      </c>
+      <c r="AL14">
+        <v>54.5096870342772</v>
+      </c>
+      <c r="AM14">
+        <v>1885.800836959762</v>
+      </c>
+      <c r="AN14">
+        <v>444.5630098238998</v>
+      </c>
+      <c r="AO14">
+        <v>2330.363846783662</v>
+      </c>
+      <c r="AP14">
+        <v>1088.460369714806</v>
+      </c>
+      <c r="AQ14">
+        <v>1300.607002297261</v>
+      </c>
+      <c r="AR14">
+        <v>33.69562072470229</v>
+      </c>
+      <c r="AS14">
+        <v>176.6085569532345</v>
+      </c>
+      <c r="AT14">
+        <v>4.507883066112981</v>
+      </c>
+      <c r="AU14">
+        <v>173.2125333203277</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:49">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>49</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
@@ -1557,14 +2865,101 @@
       </c>
       <c r="R15" t="s">
         <v>75</v>
+      </c>
+      <c r="S15">
+        <v>294.1032101819822</v>
+      </c>
+      <c r="T15">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U15">
+        <v>552.1163948000003</v>
+      </c>
+      <c r="V15" t="s">
+        <v>90</v>
+      </c>
+      <c r="W15">
+        <v>294.1032101819822</v>
+      </c>
+      <c r="X15">
+        <v>276.1032101819822</v>
+      </c>
+      <c r="Y15">
+        <v>18</v>
+      </c>
+      <c r="Z15">
+        <v>18</v>
+      </c>
+      <c r="AA15">
+        <v>438</v>
+      </c>
+      <c r="AB15">
+        <v>5.57428960363978</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0.1262111370200888</v>
+      </c>
+      <c r="AF15">
+        <v>0.1262111370200888</v>
+      </c>
+      <c r="AG15">
+        <v>0.1184866362743952</v>
+      </c>
+      <c r="AI15">
+        <v>102.8412</v>
+      </c>
+      <c r="AJ15">
+        <v>173.2620101819822</v>
+      </c>
+      <c r="AL15">
+        <v>54.5096870342772</v>
+      </c>
+      <c r="AM15">
+        <v>1885.800836959762</v>
+      </c>
+      <c r="AN15">
+        <v>444.4468505733141</v>
+      </c>
+      <c r="AO15">
+        <v>2330.247687533077</v>
+      </c>
+      <c r="AP15">
+        <v>1088.460369714806</v>
+      </c>
+      <c r="AQ15">
+        <v>1307.028500863827</v>
+      </c>
+      <c r="AR15">
+        <v>40.15053916615074</v>
+      </c>
+      <c r="AS15">
+        <v>178.6156512697177</v>
+      </c>
+      <c r="AT15">
+        <v>5.353641087735428</v>
+      </c>
+      <c r="AU15">
+        <v>171.402</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:49">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
@@ -1614,13 +3009,100 @@
       <c r="R16" t="s">
         <v>76</v>
       </c>
+      <c r="S16">
+        <v>319.8271817355809</v>
+      </c>
+      <c r="T16">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U16">
+        <v>345.4920185999999</v>
+      </c>
+      <c r="V16" t="s">
+        <v>91</v>
+      </c>
+      <c r="W16">
+        <v>319.8271817355809</v>
+      </c>
+      <c r="X16">
+        <v>301.8271817355809</v>
+      </c>
+      <c r="Y16">
+        <v>18</v>
+      </c>
+      <c r="Z16">
+        <v>18</v>
+      </c>
+      <c r="AA16">
+        <v>438</v>
+      </c>
+      <c r="AB16">
+        <v>5.57428960363978</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0.1372584681067204</v>
+      </c>
+      <c r="AF16">
+        <v>0.1372584681067204</v>
+      </c>
+      <c r="AG16">
+        <v>0.1295335073559997</v>
+      </c>
+      <c r="AI16">
+        <v>76.05150937875244</v>
+      </c>
+      <c r="AJ16">
+        <v>225.7756723568284</v>
+      </c>
+      <c r="AL16">
+        <v>54.5096870342772</v>
+      </c>
+      <c r="AM16">
+        <v>1885.800836959762</v>
+      </c>
+      <c r="AN16">
+        <v>444.3080892662741</v>
+      </c>
+      <c r="AO16">
+        <v>2330.108926226037</v>
+      </c>
+      <c r="AP16">
+        <v>1088.460369714806</v>
+      </c>
+      <c r="AQ16">
+        <v>1267.901409764696</v>
+      </c>
+      <c r="AR16">
+        <v>20.61947441775623</v>
+      </c>
+      <c r="AS16">
+        <v>227.8410336923034</v>
+      </c>
+      <c r="AT16">
+        <v>2.06536133547498</v>
+      </c>
+      <c r="AU16">
+        <v>126.7525156312541</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:49">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>49</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
@@ -1670,13 +3152,100 @@
       <c r="R17" t="s">
         <v>75</v>
       </c>
+      <c r="S17">
+        <v>240.7867222198309</v>
+      </c>
+      <c r="T17">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U17">
+        <v>519.7477011000001</v>
+      </c>
+      <c r="V17" t="s">
+        <v>92</v>
+      </c>
+      <c r="W17">
+        <v>240.7867222198309</v>
+      </c>
+      <c r="X17">
+        <v>222.7867222198309</v>
+      </c>
+      <c r="Y17">
+        <v>18</v>
+      </c>
+      <c r="Z17">
+        <v>18</v>
+      </c>
+      <c r="AA17">
+        <v>438</v>
+      </c>
+      <c r="AB17">
+        <v>5.625601728380363</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0.1036327321331022</v>
+      </c>
+      <c r="AF17">
+        <v>0.1036327321331022</v>
+      </c>
+      <c r="AG17">
+        <v>0.09588567215737478</v>
+      </c>
+      <c r="AI17">
+        <v>65.68470287235762</v>
+      </c>
+      <c r="AJ17">
+        <v>174.6799695964896</v>
+      </c>
+      <c r="AL17">
+        <v>55.7973174366617</v>
+      </c>
+      <c r="AM17">
+        <v>1868.600108494786</v>
+      </c>
+      <c r="AN17">
+        <v>454.8619605219137</v>
+      </c>
+      <c r="AO17">
+        <v>2323.462069016699</v>
+      </c>
+      <c r="AP17">
+        <v>1104.227795937876</v>
+      </c>
+      <c r="AQ17">
+        <v>1261.158975096354</v>
+      </c>
+      <c r="AR17">
+        <v>4.417643051772664</v>
+      </c>
+      <c r="AS17">
+        <v>175.2490366246075</v>
+      </c>
+      <c r="AT17">
+        <v>0.5690670281178839</v>
+      </c>
+      <c r="AU17">
+        <v>109.4745047872627</v>
+      </c>
+      <c r="AV17">
+        <v>103.6632502820352</v>
+      </c>
+      <c r="AW17">
+        <v>17.57795024901628</v>
+      </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:49">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>49</v>
       </c>
       <c r="C18" t="s">
         <v>50</v>
@@ -1726,13 +3295,100 @@
       <c r="R18" t="s">
         <v>75</v>
       </c>
+      <c r="S18">
+        <v>277.1001885734992</v>
+      </c>
+      <c r="T18">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U18">
+        <v>646.3640496000003</v>
+      </c>
+      <c r="V18" t="s">
+        <v>93</v>
+      </c>
+      <c r="W18">
+        <v>277.1001885734992</v>
+      </c>
+      <c r="X18">
+        <v>259.1001885734992</v>
+      </c>
+      <c r="Y18">
+        <v>18</v>
+      </c>
+      <c r="Z18">
+        <v>18</v>
+      </c>
+      <c r="AA18">
+        <v>438</v>
+      </c>
+      <c r="AB18">
+        <v>5.625601728380363</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0.1192612510090014</v>
+      </c>
+      <c r="AF18">
+        <v>0.1192612510090014</v>
+      </c>
+      <c r="AG18">
+        <v>0.1115142244580158</v>
+      </c>
+      <c r="AI18">
+        <v>90.75122357446199</v>
+      </c>
+      <c r="AJ18">
+        <v>168.3489649990372</v>
+      </c>
+      <c r="AL18">
+        <v>55.7973174366617</v>
+      </c>
+      <c r="AM18">
+        <v>1868.600108494786</v>
+      </c>
+      <c r="AN18">
+        <v>454.8719851576996</v>
+      </c>
+      <c r="AO18">
+        <v>2323.472093652485</v>
+      </c>
+      <c r="AP18">
+        <v>1104.227795937876</v>
+      </c>
+      <c r="AQ18">
+        <v>1256.941517803787</v>
+      </c>
+      <c r="AR18">
+        <v>12.81263215402213</v>
+      </c>
+      <c r="AS18">
+        <v>170.0275482252287</v>
+      </c>
+      <c r="AT18">
+        <v>1.678583226191506</v>
+      </c>
+      <c r="AU18">
+        <v>151.25203929077</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:49">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>49</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
@@ -1782,13 +3438,100 @@
       <c r="R19" t="s">
         <v>75</v>
       </c>
+      <c r="S19">
+        <v>284.3139504602522</v>
+      </c>
+      <c r="T19">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U19">
+        <v>592.8675100999999</v>
+      </c>
+      <c r="V19" t="s">
+        <v>94</v>
+      </c>
+      <c r="W19">
+        <v>284.3139504602522</v>
+      </c>
+      <c r="X19">
+        <v>266.3139504602522</v>
+      </c>
+      <c r="Y19">
+        <v>18</v>
+      </c>
+      <c r="Z19">
+        <v>18</v>
+      </c>
+      <c r="AA19">
+        <v>438</v>
+      </c>
+      <c r="AB19">
+        <v>5.625601728380363</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0.1223665125639753</v>
+      </c>
+      <c r="AF19">
+        <v>0.1223665125639753</v>
+      </c>
+      <c r="AG19">
+        <v>0.114619452588248</v>
+      </c>
+      <c r="AI19">
+        <v>98.22875830315954</v>
+      </c>
+      <c r="AJ19">
+        <v>168.0851921570926</v>
+      </c>
+      <c r="AL19">
+        <v>55.7973174366617</v>
+      </c>
+      <c r="AM19">
+        <v>1868.600108494786</v>
+      </c>
+      <c r="AN19">
+        <v>454.8619605219141</v>
+      </c>
+      <c r="AO19">
+        <v>2323.4620690167</v>
+      </c>
+      <c r="AP19">
+        <v>1104.227795937876</v>
+      </c>
+      <c r="AQ19">
+        <v>1254.392245908671</v>
+      </c>
+      <c r="AR19">
+        <v>10.2406712374359</v>
+      </c>
+      <c r="AS19">
+        <v>169.3321963731549</v>
+      </c>
+      <c r="AT19">
+        <v>1.247004216062332</v>
+      </c>
+      <c r="AU19">
+        <v>163.7145971719326</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:49">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
@@ -1838,13 +3581,100 @@
       <c r="R20" t="s">
         <v>75</v>
       </c>
+      <c r="S20">
+        <v>285.4316399600604</v>
+      </c>
+      <c r="T20">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U20">
+        <v>531.9203008999998</v>
+      </c>
+      <c r="V20" t="s">
+        <v>95</v>
+      </c>
+      <c r="W20">
+        <v>285.4316399600604</v>
+      </c>
+      <c r="X20">
+        <v>267.4316399600604</v>
+      </c>
+      <c r="Y20">
+        <v>18</v>
+      </c>
+      <c r="Z20">
+        <v>18</v>
+      </c>
+      <c r="AA20">
+        <v>438</v>
+      </c>
+      <c r="AB20">
+        <v>5.625601728380363</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0.1228465745688028</v>
+      </c>
+      <c r="AF20">
+        <v>0.1228465745688028</v>
+      </c>
+      <c r="AG20">
+        <v>0.1150995765746496</v>
+      </c>
+      <c r="AI20">
+        <v>98.70309027359534</v>
+      </c>
+      <c r="AJ20">
+        <v>168.7285496864651</v>
+      </c>
+      <c r="AL20">
+        <v>55.7973174366617</v>
+      </c>
+      <c r="AM20">
+        <v>1868.600108494786</v>
+      </c>
+      <c r="AN20">
+        <v>454.8805498950694</v>
+      </c>
+      <c r="AO20">
+        <v>2323.480658389855</v>
+      </c>
+      <c r="AP20">
+        <v>1104.227795937876</v>
+      </c>
+      <c r="AQ20">
+        <v>1258.645184675489</v>
+      </c>
+      <c r="AR20">
+        <v>14.55639543134132</v>
+      </c>
+      <c r="AS20">
+        <v>170.5058440302076</v>
+      </c>
+      <c r="AT20">
+        <v>1.777294343742582</v>
+      </c>
+      <c r="AU20">
+        <v>164.5051504559922</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:49">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>50</v>
@@ -1894,13 +3724,100 @@
       <c r="R21" t="s">
         <v>76</v>
       </c>
+      <c r="S21">
+        <v>313.5184875360286</v>
+      </c>
+      <c r="T21">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U21">
+        <v>280.8026199000001</v>
+      </c>
+      <c r="V21" t="s">
+        <v>96</v>
+      </c>
+      <c r="W21">
+        <v>313.5184875360286</v>
+      </c>
+      <c r="X21">
+        <v>295.5184875360286</v>
+      </c>
+      <c r="Y21">
+        <v>18</v>
+      </c>
+      <c r="Z21">
+        <v>18</v>
+      </c>
+      <c r="AA21">
+        <v>438</v>
+      </c>
+      <c r="AB21">
+        <v>5.625601728380363</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0.134964035923528</v>
+      </c>
+      <c r="AF21">
+        <v>0.134964035923528</v>
+      </c>
+      <c r="AG21">
+        <v>0.1272153616245544</v>
+      </c>
+      <c r="AI21">
+        <v>71.13698120663106</v>
+      </c>
+      <c r="AJ21">
+        <v>224.3815063293975</v>
+      </c>
+      <c r="AL21">
+        <v>55.7973174366617</v>
+      </c>
+      <c r="AM21">
+        <v>1868.600108494786</v>
+      </c>
+      <c r="AN21">
+        <v>454.3779010963875</v>
+      </c>
+      <c r="AO21">
+        <v>2322.978009591173</v>
+      </c>
+      <c r="AP21">
+        <v>1104.227795937876</v>
+      </c>
+      <c r="AQ21">
+        <v>1226.375271841837</v>
+      </c>
+      <c r="AR21">
+        <v>3.028800621620514</v>
+      </c>
+      <c r="AS21">
+        <v>224.634625061873</v>
+      </c>
+      <c r="AT21">
+        <v>0.2531187324754857</v>
+      </c>
+      <c r="AU21">
+        <v>118.5616353443851</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:49">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>49</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
@@ -1950,13 +3867,100 @@
       <c r="R22" t="s">
         <v>75</v>
       </c>
+      <c r="S22">
+        <v>275.7062899075618</v>
+      </c>
+      <c r="T22">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U22">
+        <v>579.2911436999998</v>
+      </c>
+      <c r="V22" t="s">
+        <v>97</v>
+      </c>
+      <c r="W22">
+        <v>275.7062899075618</v>
+      </c>
+      <c r="X22">
+        <v>257.7062899075618</v>
+      </c>
+      <c r="Y22">
+        <v>18</v>
+      </c>
+      <c r="Z22">
+        <v>18</v>
+      </c>
+      <c r="AA22">
+        <v>438</v>
+      </c>
+      <c r="AB22">
+        <v>5.599532731722608</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0.1166886510367428</v>
+      </c>
+      <c r="AF22">
+        <v>0.1166886510367428</v>
+      </c>
+      <c r="AG22">
+        <v>0.1090704145454187</v>
+      </c>
+      <c r="AI22">
+        <v>67.52842669399588</v>
+      </c>
+      <c r="AJ22">
+        <v>194.9596197158676</v>
+      </c>
+      <c r="AL22">
+        <v>58.08643815201192</v>
+      </c>
+      <c r="AM22">
+        <v>1877.299500447093</v>
+      </c>
+      <c r="AN22">
+        <v>485.452039295599</v>
+      </c>
+      <c r="AO22">
+        <v>2362.751539742692</v>
+      </c>
+      <c r="AP22">
+        <v>988.0626165384449</v>
+      </c>
+      <c r="AQ22">
+        <v>1427.953073964865</v>
+      </c>
+      <c r="AR22">
+        <v>27.09290410089963</v>
+      </c>
+      <c r="AS22">
+        <v>198.6765857276477</v>
+      </c>
+      <c r="AT22">
+        <v>3.716966011780132</v>
+      </c>
+      <c r="AU22">
+        <v>129.0070164723031</v>
+      </c>
+      <c r="AV22">
+        <v>28.19967141012818</v>
+      </c>
+      <c r="AW22">
+        <v>4.781756502301596</v>
+      </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:49">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>0</v>
+      <c r="B23" t="s">
+        <v>49</v>
       </c>
       <c r="C23" t="s">
         <v>50</v>
@@ -2006,13 +4010,100 @@
       <c r="R23" t="s">
         <v>75</v>
       </c>
+      <c r="S23">
+        <v>296.0822183244392</v>
+      </c>
+      <c r="T23">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U23">
+        <v>593.8384233000002</v>
+      </c>
+      <c r="V23" t="s">
+        <v>98</v>
+      </c>
+      <c r="W23">
+        <v>296.0822183244392</v>
+      </c>
+      <c r="X23">
+        <v>278.0822183244392</v>
+      </c>
+      <c r="Y23">
+        <v>18</v>
+      </c>
+      <c r="Z23">
+        <v>18</v>
+      </c>
+      <c r="AA23">
+        <v>438</v>
+      </c>
+      <c r="AB23">
+        <v>5.599532731722608</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0.1253184309561</v>
+      </c>
+      <c r="AF23">
+        <v>0.1253184309561</v>
+      </c>
+      <c r="AG23">
+        <v>0.1176998317373586</v>
+      </c>
+      <c r="AI23">
+        <v>85.85329611105018</v>
+      </c>
+      <c r="AJ23">
+        <v>192.228922213389</v>
+      </c>
+      <c r="AL23">
+        <v>58.08643815201192</v>
+      </c>
+      <c r="AM23">
+        <v>1877.299500447093</v>
+      </c>
+      <c r="AN23">
+        <v>485.3395468623878</v>
+      </c>
+      <c r="AO23">
+        <v>2362.639047309481</v>
+      </c>
+      <c r="AP23">
+        <v>988.0626165384449</v>
+      </c>
+      <c r="AQ23">
+        <v>1430.717490931672</v>
+      </c>
+      <c r="AR23">
+        <v>33.04286725634154</v>
+      </c>
+      <c r="AS23">
+        <v>196.6643859541175</v>
+      </c>
+      <c r="AT23">
+        <v>4.43546374072849</v>
+      </c>
+      <c r="AU23">
+        <v>173.4919552</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:49">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>49</v>
       </c>
       <c r="C24" t="s">
         <v>50</v>
@@ -2062,13 +4153,100 @@
       <c r="R24" t="s">
         <v>75</v>
       </c>
+      <c r="S24">
+        <v>301.5008948418549</v>
+      </c>
+      <c r="T24">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U24">
+        <v>616.7202095999996</v>
+      </c>
+      <c r="V24" t="s">
+        <v>99</v>
+      </c>
+      <c r="W24">
+        <v>301.5008948418549</v>
+      </c>
+      <c r="X24">
+        <v>283.5008948418549</v>
+      </c>
+      <c r="Y24">
+        <v>18</v>
+      </c>
+      <c r="Z24">
+        <v>18</v>
+      </c>
+      <c r="AA24">
+        <v>438</v>
+      </c>
+      <c r="AB24">
+        <v>5.599532731722608</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0.1276051566371851</v>
+      </c>
+      <c r="AF24">
+        <v>0.1276051566371851</v>
+      </c>
+      <c r="AG24">
+        <v>0.1199869609410359</v>
+      </c>
+      <c r="AI24">
+        <v>92.79118877790368</v>
+      </c>
+      <c r="AJ24">
+        <v>190.7097060639512</v>
+      </c>
+      <c r="AL24">
+        <v>58.08643815201192</v>
+      </c>
+      <c r="AM24">
+        <v>1877.299500447093</v>
+      </c>
+      <c r="AN24">
+        <v>485.4646917485323</v>
+      </c>
+      <c r="AO24">
+        <v>2362.764192195626</v>
+      </c>
+      <c r="AP24">
+        <v>988.0626165384449</v>
+      </c>
+      <c r="AQ24">
+        <v>1433.402769443582</v>
+      </c>
+      <c r="AR24">
+        <v>35.73429268543443</v>
+      </c>
+      <c r="AS24">
+        <v>195.6246842261722</v>
+      </c>
+      <c r="AT24">
+        <v>4.914978162221027</v>
+      </c>
+      <c r="AU24">
+        <v>164.6443346441095</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:49">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>49</v>
       </c>
       <c r="C25" t="s">
         <v>50</v>
@@ -2118,13 +4296,100 @@
       <c r="R25" t="s">
         <v>75</v>
       </c>
+      <c r="S25">
+        <v>303.9948390054868</v>
+      </c>
+      <c r="T25">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U25">
+        <v>518.6010912999991</v>
+      </c>
+      <c r="V25" t="s">
+        <v>100</v>
+      </c>
+      <c r="W25">
+        <v>303.9948390054868</v>
+      </c>
+      <c r="X25">
+        <v>285.9948390054868</v>
+      </c>
+      <c r="Y25">
+        <v>18</v>
+      </c>
+      <c r="Z25">
+        <v>18</v>
+      </c>
+      <c r="AA25">
+        <v>438</v>
+      </c>
+      <c r="AB25">
+        <v>5.599532731722608</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0.1286736620835953</v>
+      </c>
+      <c r="AF25">
+        <v>0.1286736620835953</v>
+      </c>
+      <c r="AG25">
+        <v>0.1210546974818215</v>
+      </c>
+      <c r="AI25">
+        <v>94.814719558306</v>
+      </c>
+      <c r="AJ25">
+        <v>191.1801194471808</v>
+      </c>
+      <c r="AL25">
+        <v>58.08643815201192</v>
+      </c>
+      <c r="AM25">
+        <v>1877.299500447093</v>
+      </c>
+      <c r="AN25">
+        <v>485.2262416740166</v>
+      </c>
+      <c r="AO25">
+        <v>2362.52574212111</v>
+      </c>
+      <c r="AP25">
+        <v>988.0626165384449</v>
+      </c>
+      <c r="AQ25">
+        <v>1436.251652002938</v>
+      </c>
+      <c r="AR25">
+        <v>38.0652553967588</v>
+      </c>
+      <c r="AS25">
+        <v>196.4979241574616</v>
+      </c>
+      <c r="AT25">
+        <v>5.317804710280809</v>
+      </c>
+      <c r="AU25">
+        <v>173.2649</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:49">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>49</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
@@ -2174,13 +4439,100 @@
       <c r="R26" t="s">
         <v>76</v>
       </c>
+      <c r="S26">
+        <v>334.2183602966965</v>
+      </c>
+      <c r="T26">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U26">
+        <v>331.9102041999995</v>
+      </c>
+      <c r="V26" t="s">
+        <v>101</v>
+      </c>
+      <c r="W26">
+        <v>334.2183602966965</v>
+      </c>
+      <c r="X26">
+        <v>316.2183602966965</v>
+      </c>
+      <c r="Y26">
+        <v>18</v>
+      </c>
+      <c r="Z26">
+        <v>18</v>
+      </c>
+      <c r="AA26">
+        <v>438</v>
+      </c>
+      <c r="AB26">
+        <v>5.599532731722608</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0.1414619588902293</v>
+      </c>
+      <c r="AF26">
+        <v>0.1414619588902293</v>
+      </c>
+      <c r="AG26">
+        <v>0.1338432414213157</v>
+      </c>
+      <c r="AI26">
+        <v>74.55459923640996</v>
+      </c>
+      <c r="AJ26">
+        <v>241.6637610602866</v>
+      </c>
+      <c r="AL26">
+        <v>58.08643815201192</v>
+      </c>
+      <c r="AM26">
+        <v>1877.299500447093</v>
+      </c>
+      <c r="AN26">
+        <v>485.3028763236184</v>
+      </c>
+      <c r="AO26">
+        <v>2362.602376770712</v>
+      </c>
+      <c r="AP26">
+        <v>988.0626165384449</v>
+      </c>
+      <c r="AQ26">
+        <v>1396.451201515904</v>
+      </c>
+      <c r="AR26">
+        <v>16.65323984603663</v>
+      </c>
+      <c r="AS26">
+        <v>243.2417582038896</v>
+      </c>
+      <c r="AT26">
+        <v>1.577997143603045</v>
+      </c>
+      <c r="AU26">
+        <v>150.5056248776687</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:49">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>0</v>
+      <c r="B27" t="s">
+        <v>49</v>
       </c>
       <c r="C27" t="s">
         <v>50</v>
@@ -2230,13 +4582,100 @@
       <c r="R27" t="s">
         <v>75</v>
       </c>
+      <c r="S27">
+        <v>325.7699703096879</v>
+      </c>
+      <c r="T27">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U27">
+        <v>592.1339754000001</v>
+      </c>
+      <c r="V27" t="s">
+        <v>102</v>
+      </c>
+      <c r="W27">
+        <v>325.7699703096879</v>
+      </c>
+      <c r="X27">
+        <v>307.7699703096879</v>
+      </c>
+      <c r="Y27">
+        <v>18</v>
+      </c>
+      <c r="Z27">
+        <v>18</v>
+      </c>
+      <c r="AA27">
+        <v>438</v>
+      </c>
+      <c r="AB27">
+        <v>5.597481561824546</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0.1354220920178039</v>
+      </c>
+      <c r="AF27">
+        <v>0.1354220920178039</v>
+      </c>
+      <c r="AG27">
+        <v>0.1279395187959591</v>
+      </c>
+      <c r="AI27">
+        <v>81.97855359612316</v>
+      </c>
+      <c r="AJ27">
+        <v>225.7914167135647</v>
+      </c>
+      <c r="AL27">
+        <v>60.37555886736215</v>
+      </c>
+      <c r="AM27">
+        <v>1877.98742771982</v>
+      </c>
+      <c r="AN27">
+        <v>527.602129018522</v>
+      </c>
+      <c r="AO27">
+        <v>2405.589556738342</v>
+      </c>
+      <c r="AP27">
+        <v>797.5039720927646</v>
+      </c>
+      <c r="AQ27">
+        <v>1646.98205531508</v>
+      </c>
+      <c r="AR27">
+        <v>15.48383064113095</v>
+      </c>
+      <c r="AS27">
+        <v>228.3451162620125</v>
+      </c>
+      <c r="AT27">
+        <v>2.553699548447789</v>
+      </c>
+      <c r="AU27">
+        <v>136.6309226602053</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:49">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>49</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
@@ -2286,13 +4725,100 @@
       <c r="R28" t="s">
         <v>75</v>
       </c>
+      <c r="S28">
+        <v>346.1638477603499</v>
+      </c>
+      <c r="T28">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U28">
+        <v>633.7243055999998</v>
+      </c>
+      <c r="V28" t="s">
+        <v>103</v>
+      </c>
+      <c r="W28">
+        <v>346.1638477603499</v>
+      </c>
+      <c r="X28">
+        <v>328.1638477603499</v>
+      </c>
+      <c r="Y28">
+        <v>18</v>
+      </c>
+      <c r="Z28">
+        <v>18</v>
+      </c>
+      <c r="AA28">
+        <v>438</v>
+      </c>
+      <c r="AB28">
+        <v>5.597481561824546</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0.1438955931943911</v>
+      </c>
+      <c r="AF28">
+        <v>0.1438955931943911</v>
+      </c>
+      <c r="AG28">
+        <v>0.1364132385399207</v>
+      </c>
+      <c r="AI28">
+        <v>104.3351763</v>
+      </c>
+      <c r="AJ28">
+        <v>223.8286714603499</v>
+      </c>
+      <c r="AL28">
+        <v>60.37555886736215</v>
+      </c>
+      <c r="AM28">
+        <v>1877.98742771982</v>
+      </c>
+      <c r="AN28">
+        <v>527.6723987955836</v>
+      </c>
+      <c r="AO28">
+        <v>2405.659826515403</v>
+      </c>
+      <c r="AP28">
+        <v>797.5039720927646</v>
+      </c>
+      <c r="AQ28">
+        <v>1661.155260906139</v>
+      </c>
+      <c r="AR28">
+        <v>28.34699993409882</v>
+      </c>
+      <c r="AS28">
+        <v>228.0807972136712</v>
+      </c>
+      <c r="AT28">
+        <v>4.252125753321353</v>
+      </c>
+      <c r="AU28">
+        <v>173.8919605</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:49">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>0</v>
+      <c r="B29" t="s">
+        <v>49</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
@@ -2342,13 +4868,100 @@
       <c r="R29" t="s">
         <v>75</v>
       </c>
+      <c r="S29">
+        <v>344.2486876827967</v>
+      </c>
+      <c r="T29">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U29">
+        <v>655.9175179000003</v>
+      </c>
+      <c r="V29" t="s">
+        <v>104</v>
+      </c>
+      <c r="W29">
+        <v>344.2486876827967</v>
+      </c>
+      <c r="X29">
+        <v>326.2486876827967</v>
+      </c>
+      <c r="Y29">
+        <v>18</v>
+      </c>
+      <c r="Z29">
+        <v>18</v>
+      </c>
+      <c r="AA29">
+        <v>438</v>
+      </c>
+      <c r="AB29">
+        <v>5.597481561824546</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0.1430994872543724</v>
+      </c>
+      <c r="AF29">
+        <v>0.1430994872543724</v>
+      </c>
+      <c r="AG29">
+        <v>0.135617132599902</v>
+      </c>
+      <c r="AI29">
+        <v>103.66954443934</v>
+      </c>
+      <c r="AJ29">
+        <v>222.5791432434567</v>
+      </c>
+      <c r="AL29">
+        <v>60.37555886736215</v>
+      </c>
+      <c r="AM29">
+        <v>1877.98742771982</v>
+      </c>
+      <c r="AN29">
+        <v>527.6723987955837</v>
+      </c>
+      <c r="AO29">
+        <v>2405.659826515403</v>
+      </c>
+      <c r="AP29">
+        <v>797.5039720927646</v>
+      </c>
+      <c r="AQ29">
+        <v>1657.446589573656</v>
+      </c>
+      <c r="AR29">
+        <v>24.72148830797556</v>
+      </c>
+      <c r="AS29">
+        <v>226.4806077788929</v>
+      </c>
+      <c r="AT29">
+        <v>3.90146453543612</v>
+      </c>
+      <c r="AU29">
+        <v>172.7825740655667</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:49">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>0</v>
+      <c r="B30" t="s">
+        <v>49</v>
       </c>
       <c r="C30" t="s">
         <v>50</v>
@@ -2398,13 +5011,100 @@
       <c r="R30" t="s">
         <v>75</v>
       </c>
+      <c r="S30">
+        <v>345.7653464880329</v>
+      </c>
+      <c r="T30">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U30">
+        <v>526.9247888999998</v>
+      </c>
+      <c r="V30" t="s">
+        <v>105</v>
+      </c>
+      <c r="W30">
+        <v>345.7653464880329</v>
+      </c>
+      <c r="X30">
+        <v>327.7653464880329</v>
+      </c>
+      <c r="Y30">
+        <v>18</v>
+      </c>
+      <c r="Z30">
+        <v>18</v>
+      </c>
+      <c r="AA30">
+        <v>438</v>
+      </c>
+      <c r="AB30">
+        <v>5.597481561824546</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0.1437299416471837</v>
+      </c>
+      <c r="AF30">
+        <v>0.1437299416471837</v>
+      </c>
+      <c r="AG30">
+        <v>0.1362475869927133</v>
+      </c>
+      <c r="AI30">
+        <v>104.45478</v>
+      </c>
+      <c r="AJ30">
+        <v>223.3105664880329</v>
+      </c>
+      <c r="AL30">
+        <v>60.37555886736215</v>
+      </c>
+      <c r="AM30">
+        <v>1877.98742771982</v>
+      </c>
+      <c r="AN30">
+        <v>527.6723987955833</v>
+      </c>
+      <c r="AO30">
+        <v>2405.659826515403</v>
+      </c>
+      <c r="AP30">
+        <v>797.5039720927646</v>
+      </c>
+      <c r="AQ30">
+        <v>1661.952316526592</v>
+      </c>
+      <c r="AR30">
+        <v>28.73248893365805</v>
+      </c>
+      <c r="AS30">
+        <v>227.8585328205341</v>
+      </c>
+      <c r="AT30">
+        <v>4.547966332501177</v>
+      </c>
+      <c r="AU30">
+        <v>174.0913</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:49">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>0</v>
+      <c r="B31" t="s">
+        <v>49</v>
       </c>
       <c r="C31" t="s">
         <v>50</v>
@@ -2454,13 +5154,100 @@
       <c r="R31" t="s">
         <v>76</v>
       </c>
+      <c r="S31">
+        <v>393.0582608523316</v>
+      </c>
+      <c r="T31">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U31">
+        <v>295.7797811</v>
+      </c>
+      <c r="V31" t="s">
+        <v>106</v>
+      </c>
+      <c r="W31">
+        <v>393.0582608523316</v>
+      </c>
+      <c r="X31">
+        <v>375.0582608523316</v>
+      </c>
+      <c r="Y31">
+        <v>18</v>
+      </c>
+      <c r="Z31">
+        <v>18</v>
+      </c>
+      <c r="AA31">
+        <v>438</v>
+      </c>
+      <c r="AB31">
+        <v>5.597481561824546</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0.1633893710694087</v>
+      </c>
+      <c r="AF31">
+        <v>0.1633893710694087</v>
+      </c>
+      <c r="AG31">
+        <v>0.1559069976602558</v>
+      </c>
+      <c r="AI31">
+        <v>94.58221344832049</v>
+      </c>
+      <c r="AJ31">
+        <v>280.4760474040111</v>
+      </c>
+      <c r="AL31">
+        <v>60.37555886736215</v>
+      </c>
+      <c r="AM31">
+        <v>1877.98742771982</v>
+      </c>
+      <c r="AN31">
+        <v>527.6663689727343</v>
+      </c>
+      <c r="AO31">
+        <v>2405.653796692554</v>
+      </c>
+      <c r="AP31">
+        <v>797.5039720927646</v>
+      </c>
+      <c r="AQ31">
+        <v>1613.133290285733</v>
+      </c>
+      <c r="AR31">
+        <v>1.283192638168413</v>
+      </c>
+      <c r="AS31">
+        <v>280.5877353294574</v>
+      </c>
+      <c r="AT31">
+        <v>0.1116879254462166</v>
+      </c>
+      <c r="AU31">
+        <v>157.6370224138675</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:49">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>0</v>
+      <c r="B32" t="s">
+        <v>49</v>
       </c>
       <c r="C32" t="s">
         <v>50</v>
@@ -2510,13 +5297,100 @@
       <c r="R32" t="s">
         <v>75</v>
       </c>
+      <c r="S32">
+        <v>297.0050293084225</v>
+      </c>
+      <c r="T32">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U32">
+        <v>586.5092970000005</v>
+      </c>
+      <c r="V32" t="s">
+        <v>107</v>
+      </c>
+      <c r="W32">
+        <v>297.0050293084225</v>
+      </c>
+      <c r="X32">
+        <v>279.0050293084225</v>
+      </c>
+      <c r="Y32">
+        <v>18</v>
+      </c>
+      <c r="Z32">
+        <v>18</v>
+      </c>
+      <c r="AA32">
+        <v>438</v>
+      </c>
+      <c r="AB32">
+        <v>5.57014950553585</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0.1264104780062478</v>
+      </c>
+      <c r="AF32">
+        <v>0.1264104780062478</v>
+      </c>
+      <c r="AG32">
+        <v>0.1187493666459092</v>
+      </c>
+      <c r="AI32">
+        <v>84.28340273761678</v>
+      </c>
+      <c r="AJ32">
+        <v>194.7216265708057</v>
+      </c>
+      <c r="AL32">
+        <v>57.80029806259315</v>
+      </c>
+      <c r="AM32">
+        <v>1887.202487034276</v>
+      </c>
+      <c r="AN32">
+        <v>462.3260804769002</v>
+      </c>
+      <c r="AO32">
+        <v>2349.528567511176</v>
+      </c>
+      <c r="AP32">
+        <v>928.5290690575958</v>
+      </c>
+      <c r="AQ32">
+        <v>1467.533279392594</v>
+      </c>
+      <c r="AR32">
+        <v>23.50842843817478</v>
+      </c>
+      <c r="AS32">
+        <v>198.4854446163812</v>
+      </c>
+      <c r="AT32">
+        <v>3.76381804557546</v>
+      </c>
+      <c r="AU32">
+        <v>140.472337896028</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:49">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>49</v>
       </c>
       <c r="C33" t="s">
         <v>50</v>
@@ -2566,13 +5440,100 @@
       <c r="R33" t="s">
         <v>75</v>
       </c>
+      <c r="S33">
+        <v>316.346732163607</v>
+      </c>
+      <c r="T33">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U33">
+        <v>620.9828746000003</v>
+      </c>
+      <c r="V33" t="s">
+        <v>108</v>
+      </c>
+      <c r="W33">
+        <v>316.346732163607</v>
+      </c>
+      <c r="X33">
+        <v>298.346732163607</v>
+      </c>
+      <c r="Y33">
+        <v>18</v>
+      </c>
+      <c r="Z33">
+        <v>18</v>
+      </c>
+      <c r="AA33">
+        <v>438</v>
+      </c>
+      <c r="AB33">
+        <v>5.57014950553585</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0.1346371756615275</v>
+      </c>
+      <c r="AF33">
+        <v>0.1346371756615275</v>
+      </c>
+      <c r="AG33">
+        <v>0.1269763752943717</v>
+      </c>
+      <c r="AI33">
+        <v>104.4059619</v>
+      </c>
+      <c r="AJ33">
+        <v>193.940770263607</v>
+      </c>
+      <c r="AL33">
+        <v>57.80029806259315</v>
+      </c>
+      <c r="AM33">
+        <v>1887.202487034276</v>
+      </c>
+      <c r="AN33">
+        <v>462.4214605067063</v>
+      </c>
+      <c r="AO33">
+        <v>2349.623947540982</v>
+      </c>
+      <c r="AP33">
+        <v>928.5290690575958</v>
+      </c>
+      <c r="AQ33">
+        <v>1477.046123940865</v>
+      </c>
+      <c r="AR33">
+        <v>32.06949085901856</v>
+      </c>
+      <c r="AS33">
+        <v>198.9446823966068</v>
+      </c>
+      <c r="AT33">
+        <v>5.00391213299983</v>
+      </c>
+      <c r="AU33">
+        <v>174.0099365</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:49">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>0</v>
+      <c r="B34" t="s">
+        <v>49</v>
       </c>
       <c r="C34" t="s">
         <v>50</v>
@@ -2622,13 +5583,100 @@
       <c r="R34" t="s">
         <v>75</v>
       </c>
+      <c r="S34">
+        <v>315.4017506650151</v>
+      </c>
+      <c r="T34">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U34">
+        <v>615.5794659000003</v>
+      </c>
+      <c r="V34" t="s">
+        <v>109</v>
+      </c>
+      <c r="W34">
+        <v>315.4017506650151</v>
+      </c>
+      <c r="X34">
+        <v>297.4017506650151</v>
+      </c>
+      <c r="Y34">
+        <v>18</v>
+      </c>
+      <c r="Z34">
+        <v>18</v>
+      </c>
+      <c r="AA34">
+        <v>438</v>
+      </c>
+      <c r="AB34">
+        <v>5.57014950553585</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0.1342339239460298</v>
+      </c>
+      <c r="AF34">
+        <v>0.1342339239460298</v>
+      </c>
+      <c r="AG34">
+        <v>0.1265731845051927</v>
+      </c>
+      <c r="AI34">
+        <v>104.2677791310632</v>
+      </c>
+      <c r="AJ34">
+        <v>193.1339715339519</v>
+      </c>
+      <c r="AL34">
+        <v>57.80029806259315</v>
+      </c>
+      <c r="AM34">
+        <v>1887.202487034276</v>
+      </c>
+      <c r="AN34">
+        <v>462.4401472064235</v>
+      </c>
+      <c r="AO34">
+        <v>2349.6426342407</v>
+      </c>
+      <c r="AP34">
+        <v>928.5290690575958</v>
+      </c>
+      <c r="AQ34">
+        <v>1475.761353621251</v>
+      </c>
+      <c r="AR34">
+        <v>30.68286424092415</v>
+      </c>
+      <c r="AS34">
+        <v>197.8680446485775</v>
+      </c>
+      <c r="AT34">
+        <v>4.734073114625602</v>
+      </c>
+      <c r="AU34">
+        <v>173.7796318851053</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:49">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>49</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
@@ -2678,13 +5726,100 @@
       <c r="R35" t="s">
         <v>75</v>
       </c>
+      <c r="S35">
+        <v>316.5786919082162</v>
+      </c>
+      <c r="T35">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U35">
+        <v>506.9906509000002</v>
+      </c>
+      <c r="V35" t="s">
+        <v>110</v>
+      </c>
+      <c r="W35">
+        <v>316.5786919082162</v>
+      </c>
+      <c r="X35">
+        <v>298.5786919082162</v>
+      </c>
+      <c r="Y35">
+        <v>18</v>
+      </c>
+      <c r="Z35">
+        <v>18</v>
+      </c>
+      <c r="AA35">
+        <v>438</v>
+      </c>
+      <c r="AB35">
+        <v>5.57014950553585</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0.1347499802082367</v>
+      </c>
+      <c r="AF35">
+        <v>0.1347499802082367</v>
+      </c>
+      <c r="AG35">
+        <v>0.1270883791411268</v>
+      </c>
+      <c r="AI35">
+        <v>104.4131172359888</v>
+      </c>
+      <c r="AJ35">
+        <v>194.1655746722274</v>
+      </c>
+      <c r="AL35">
+        <v>57.80029806259315</v>
+      </c>
+      <c r="AM35">
+        <v>1887.202487034276</v>
+      </c>
+      <c r="AN35">
+        <v>462.1759055932358</v>
+      </c>
+      <c r="AO35">
+        <v>2349.378392627512</v>
+      </c>
+      <c r="AP35">
+        <v>928.5290690575958</v>
+      </c>
+      <c r="AQ35">
+        <v>1479.951838233003</v>
+      </c>
+      <c r="AR35">
+        <v>34.1476527451157</v>
+      </c>
+      <c r="AS35">
+        <v>199.3451496471438</v>
+      </c>
+      <c r="AT35">
+        <v>5.179574974916378</v>
+      </c>
+      <c r="AU35">
+        <v>174.0218620599813</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:49">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>0</v>
+      <c r="B36" t="s">
+        <v>49</v>
       </c>
       <c r="C36" t="s">
         <v>50</v>
@@ -2734,13 +5869,100 @@
       <c r="R36" t="s">
         <v>76</v>
       </c>
+      <c r="S36">
+        <v>356.6901299834037</v>
+      </c>
+      <c r="T36">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U36">
+        <v>324.9235724</v>
+      </c>
+      <c r="V36" t="s">
+        <v>111</v>
+      </c>
+      <c r="W36">
+        <v>356.6901299834037</v>
+      </c>
+      <c r="X36">
+        <v>338.6901299834037</v>
+      </c>
+      <c r="Y36">
+        <v>18</v>
+      </c>
+      <c r="Z36">
+        <v>18</v>
+      </c>
+      <c r="AA36">
+        <v>438</v>
+      </c>
+      <c r="AB36">
+        <v>5.57014950553585</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0.1517746658217855</v>
+      </c>
+      <c r="AF36">
+        <v>0.1517746658217855</v>
+      </c>
+      <c r="AG36">
+        <v>0.1441155136469853</v>
+      </c>
+      <c r="AI36">
+        <v>87.98758477426065</v>
+      </c>
+      <c r="AJ36">
+        <v>250.702545209143</v>
+      </c>
+      <c r="AL36">
+        <v>57.80029806259315</v>
+      </c>
+      <c r="AM36">
+        <v>1887.202487034276</v>
+      </c>
+      <c r="AN36">
+        <v>462.9270820351156</v>
+      </c>
+      <c r="AO36">
+        <v>2350.129569069392</v>
+      </c>
+      <c r="AP36">
+        <v>928.5290690575958</v>
+      </c>
+      <c r="AQ36">
+        <v>1429.599450468732</v>
+      </c>
+      <c r="AR36">
+        <v>4.719620003191539</v>
+      </c>
+      <c r="AS36">
+        <v>251.148928780729</v>
+      </c>
+      <c r="AT36">
+        <v>0.4463835715859154</v>
+      </c>
+      <c r="AU36">
+        <v>146.6459746237678</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:49">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>0</v>
+      <c r="B37" t="s">
+        <v>49</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
@@ -2790,13 +6012,100 @@
       <c r="R37" t="s">
         <v>75</v>
       </c>
+      <c r="S37">
+        <v>275.6304418852002</v>
+      </c>
+      <c r="T37">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U37">
+        <v>516.4238146999996</v>
+      </c>
+      <c r="V37" t="s">
+        <v>112</v>
+      </c>
+      <c r="W37">
+        <v>275.6304418852002</v>
+      </c>
+      <c r="X37">
+        <v>257.6304418852002</v>
+      </c>
+      <c r="Y37">
+        <v>18</v>
+      </c>
+      <c r="Z37">
+        <v>18</v>
+      </c>
+      <c r="AA37">
+        <v>438</v>
+      </c>
+      <c r="AB37">
+        <v>5.717580227943085</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0.1161150911494214</v>
+      </c>
+      <c r="AF37">
+        <v>0.1161150911494214</v>
+      </c>
+      <c r="AG37">
+        <v>0.1085322145034517</v>
+      </c>
+      <c r="AI37">
+        <v>74.54605775626175</v>
+      </c>
+      <c r="AJ37">
+        <v>183.0843841289385</v>
+      </c>
+      <c r="AL37">
+        <v>59.23099850968703</v>
+      </c>
+      <c r="AM37">
+        <v>1838.540008345755</v>
+      </c>
+      <c r="AN37">
+        <v>535.2293196265093</v>
+      </c>
+      <c r="AO37">
+        <v>2373.769327972264</v>
+      </c>
+      <c r="AP37">
+        <v>1038.204329150231</v>
+      </c>
+      <c r="AQ37">
+        <v>1380.125859611766</v>
+      </c>
+      <c r="AR37">
+        <v>20.92104988529874</v>
+      </c>
+      <c r="AS37">
+        <v>186.2364940090611</v>
+      </c>
+      <c r="AT37">
+        <v>3.152109880122552</v>
+      </c>
+      <c r="AU37">
+        <v>124.2434295937696</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:49">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>0</v>
+      <c r="B38" t="s">
+        <v>49</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
@@ -2846,13 +6155,100 @@
       <c r="R38" t="s">
         <v>75</v>
       </c>
+      <c r="S38">
+        <v>301.0327985475339</v>
+      </c>
+      <c r="T38">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U38">
+        <v>595.3442646000003</v>
+      </c>
+      <c r="V38" t="s">
+        <v>113</v>
+      </c>
+      <c r="W38">
+        <v>301.0327985475339</v>
+      </c>
+      <c r="X38">
+        <v>283.0327985475339</v>
+      </c>
+      <c r="Y38">
+        <v>18</v>
+      </c>
+      <c r="Z38">
+        <v>18</v>
+      </c>
+      <c r="AA38">
+        <v>438</v>
+      </c>
+      <c r="AB38">
+        <v>5.717580227943085</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0.1268252280765984</v>
+      </c>
+      <c r="AF38">
+        <v>0.1268252280765984</v>
+      </c>
+      <c r="AG38">
+        <v>0.1192418214963406</v>
+      </c>
+      <c r="AI38">
+        <v>102.7961355</v>
+      </c>
+      <c r="AJ38">
+        <v>180.2366630475339</v>
+      </c>
+      <c r="AL38">
+        <v>59.23099850968703</v>
+      </c>
+      <c r="AM38">
+        <v>1838.540008345755</v>
+      </c>
+      <c r="AN38">
+        <v>535.063438799002</v>
+      </c>
+      <c r="AO38">
+        <v>2373.603447144757</v>
+      </c>
+      <c r="AP38">
+        <v>1038.204329150231</v>
+      </c>
+      <c r="AQ38">
+        <v>1391.142007907903</v>
+      </c>
+      <c r="AR38">
+        <v>30.90297402656895</v>
+      </c>
+      <c r="AS38">
+        <v>184.5297542469208</v>
+      </c>
+      <c r="AT38">
+        <v>4.293091199386888</v>
+      </c>
+      <c r="AU38">
+        <v>171.3268925</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:49">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>0</v>
+      <c r="B39" t="s">
+        <v>49</v>
       </c>
       <c r="C39" t="s">
         <v>50</v>
@@ -2902,13 +6298,100 @@
       <c r="R39" t="s">
         <v>75</v>
       </c>
+      <c r="S39">
+        <v>300.9549775395593</v>
+      </c>
+      <c r="T39">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U39">
+        <v>623.8067998999995</v>
+      </c>
+      <c r="V39" t="s">
+        <v>114</v>
+      </c>
+      <c r="W39">
+        <v>300.9549775395593</v>
+      </c>
+      <c r="X39">
+        <v>282.9549775395593</v>
+      </c>
+      <c r="Y39">
+        <v>18</v>
+      </c>
+      <c r="Z39">
+        <v>18</v>
+      </c>
+      <c r="AA39">
+        <v>438</v>
+      </c>
+      <c r="AB39">
+        <v>5.717580227943085</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0.1267749376292055</v>
+      </c>
+      <c r="AF39">
+        <v>0.1267749376292055</v>
+      </c>
+      <c r="AG39">
+        <v>0.1191925779819863</v>
+      </c>
+      <c r="AI39">
+        <v>102.4370587707951</v>
+      </c>
+      <c r="AJ39">
+        <v>180.5179187687641</v>
+      </c>
+      <c r="AL39">
+        <v>59.23099850968703</v>
+      </c>
+      <c r="AM39">
+        <v>1838.540008345755</v>
+      </c>
+      <c r="AN39">
+        <v>535.3911736974969</v>
+      </c>
+      <c r="AO39">
+        <v>2373.931182043251</v>
+      </c>
+      <c r="AP39">
+        <v>1038.204329150231</v>
+      </c>
+      <c r="AQ39">
+        <v>1387.161525449379</v>
+      </c>
+      <c r="AR39">
+        <v>26.82419692073067</v>
+      </c>
+      <c r="AS39">
+        <v>184.328580856735</v>
+      </c>
+      <c r="AT39">
+        <v>3.810662087970919</v>
+      </c>
+      <c r="AU39">
+        <v>170.7284312846586</v>
+      </c>
+      <c r="AV39">
+        <v>7.105427357601002E-15</v>
+      </c>
+      <c r="AW39">
+        <v>1.204851750741936E-15</v>
+      </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:49">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>49</v>
       </c>
       <c r="C40" t="s">
         <v>50</v>
@@ -2958,13 +6441,100 @@
       <c r="R40" t="s">
         <v>75</v>
       </c>
+      <c r="S40">
+        <v>305.323392515811</v>
+      </c>
+      <c r="T40">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U40">
+        <v>537.4602432000001</v>
+      </c>
+      <c r="V40" t="s">
+        <v>115</v>
+      </c>
+      <c r="W40">
+        <v>305.323392515811</v>
+      </c>
+      <c r="X40">
+        <v>287.323392515811</v>
+      </c>
+      <c r="Y40">
+        <v>18</v>
+      </c>
+      <c r="Z40">
+        <v>18</v>
+      </c>
+      <c r="AA40">
+        <v>438</v>
+      </c>
+      <c r="AB40">
+        <v>5.717580227943085</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0.1286293105971823</v>
+      </c>
+      <c r="AF40">
+        <v>0.1286293105971823</v>
+      </c>
+      <c r="AG40">
+        <v>0.1210461130843046</v>
+      </c>
+      <c r="AI40">
+        <v>106.40268</v>
+      </c>
+      <c r="AJ40">
+        <v>180.920712515811</v>
+      </c>
+      <c r="AL40">
+        <v>59.23099850968703</v>
+      </c>
+      <c r="AM40">
+        <v>1838.540008345755</v>
+      </c>
+      <c r="AN40">
+        <v>535.1288786155296</v>
+      </c>
+      <c r="AO40">
+        <v>2373.668886961284</v>
+      </c>
+      <c r="AP40">
+        <v>1038.204329150231</v>
+      </c>
+      <c r="AQ40">
+        <v>1389.242534753665</v>
+      </c>
+      <c r="AR40">
+        <v>28.78580974010649</v>
+      </c>
+      <c r="AS40">
+        <v>185.2282984185289</v>
+      </c>
+      <c r="AT40">
+        <v>4.307585902717874</v>
+      </c>
+      <c r="AU40">
+        <v>177.3378</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:49">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>0</v>
+      <c r="B41" t="s">
+        <v>49</v>
       </c>
       <c r="C41" t="s">
         <v>50</v>
@@ -3014,13 +6584,100 @@
       <c r="R41" t="s">
         <v>76</v>
       </c>
+      <c r="S41">
+        <v>349.5596513494253</v>
+      </c>
+      <c r="T41">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U41">
+        <v>287.6512341999996</v>
+      </c>
+      <c r="V41" t="s">
+        <v>116</v>
+      </c>
+      <c r="W41">
+        <v>349.5596513494253</v>
+      </c>
+      <c r="X41">
+        <v>331.5596513494253</v>
+      </c>
+      <c r="Y41">
+        <v>18</v>
+      </c>
+      <c r="Z41">
+        <v>18</v>
+      </c>
+      <c r="AA41">
+        <v>438</v>
+      </c>
+      <c r="AB41">
+        <v>5.717580227943085</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0.1472617956570264</v>
+      </c>
+      <c r="AF41">
+        <v>0.1472617956570264</v>
+      </c>
+      <c r="AG41">
+        <v>0.1396787914069827</v>
+      </c>
+      <c r="AI41">
+        <v>92.04417534243257</v>
+      </c>
+      <c r="AJ41">
+        <v>239.5154760069927</v>
+      </c>
+      <c r="AL41">
+        <v>59.23099850968703</v>
+      </c>
+      <c r="AM41">
+        <v>1838.540008345755</v>
+      </c>
+      <c r="AN41">
+        <v>535.189374688199</v>
+      </c>
+      <c r="AO41">
+        <v>2373.729383033954</v>
+      </c>
+      <c r="AP41">
+        <v>1038.204329150231</v>
+      </c>
+      <c r="AQ41">
+        <v>1342.367606571137</v>
+      </c>
+      <c r="AR41">
+        <v>3.883105762649668</v>
+      </c>
+      <c r="AS41">
+        <v>239.8544669722537</v>
+      </c>
+      <c r="AT41">
+        <v>0.3389909652609625</v>
+      </c>
+      <c r="AU41">
+        <v>153.4069589040543</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:49">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>0</v>
+      <c r="B42" t="s">
+        <v>49</v>
       </c>
       <c r="C42" t="s">
         <v>50</v>
@@ -3070,13 +6727,100 @@
       <c r="R42" t="s">
         <v>75</v>
       </c>
+      <c r="S42">
+        <v>250.776534381064</v>
+      </c>
+      <c r="T42">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U42">
+        <v>529.1523348000001</v>
+      </c>
+      <c r="V42" t="s">
+        <v>117</v>
+      </c>
+      <c r="W42">
+        <v>250.776534381064</v>
+      </c>
+      <c r="X42">
+        <v>232.776534381064</v>
+      </c>
+      <c r="Y42">
+        <v>18</v>
+      </c>
+      <c r="Z42">
+        <v>18</v>
+      </c>
+      <c r="AA42">
+        <v>438</v>
+      </c>
+      <c r="AB42">
+        <v>5.847353292220189</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0.1095287053672092</v>
+      </c>
+      <c r="AF42">
+        <v>0.1095287053672092</v>
+      </c>
+      <c r="AG42">
+        <v>0.1016670579388498</v>
+      </c>
+      <c r="AI42">
+        <v>73.00804753419186</v>
+      </c>
+      <c r="AJ42">
+        <v>180.991526718705</v>
+      </c>
+      <c r="AL42">
+        <v>56.22652757078987</v>
+      </c>
+      <c r="AM42">
+        <v>1797.736424441131</v>
+      </c>
+      <c r="AN42">
+        <v>491.8600200736031</v>
+      </c>
+      <c r="AO42">
+        <v>2289.596444514734</v>
+      </c>
+      <c r="AP42">
+        <v>1044.762383893162</v>
+      </c>
+      <c r="AQ42">
+        <v>1313.158679147751</v>
+      </c>
+      <c r="AR42">
+        <v>28.89731893090864</v>
+      </c>
+      <c r="AS42">
+        <v>183.8135440252242</v>
+      </c>
+      <c r="AT42">
+        <v>2.822017306519195</v>
+      </c>
+      <c r="AU42">
+        <v>126.8986082457914</v>
+      </c>
+      <c r="AV42">
+        <v>125.1596040956223</v>
+      </c>
+      <c r="AW42">
+        <v>21.22303987183286</v>
+      </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:49">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>0</v>
+      <c r="B43" t="s">
+        <v>49</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -3126,13 +6870,100 @@
       <c r="R43" t="s">
         <v>75</v>
       </c>
+      <c r="S43">
+        <v>269.0746657424037</v>
+      </c>
+      <c r="T43">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U43">
+        <v>588.8117132999996</v>
+      </c>
+      <c r="V43" t="s">
+        <v>118</v>
+      </c>
+      <c r="W43">
+        <v>269.0746657424037</v>
+      </c>
+      <c r="X43">
+        <v>251.0746657424037</v>
+      </c>
+      <c r="Y43">
+        <v>18</v>
+      </c>
+      <c r="Z43">
+        <v>18</v>
+      </c>
+      <c r="AA43">
+        <v>438</v>
+      </c>
+      <c r="AB43">
+        <v>5.847353292220189</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0.1175036639802257</v>
+      </c>
+      <c r="AF43">
+        <v>0.1175036639802257</v>
+      </c>
+      <c r="AG43">
+        <v>0.1096431471017289</v>
+      </c>
+      <c r="AI43">
+        <v>96.7950631468717</v>
+      </c>
+      <c r="AJ43">
+        <v>175.6290227077183</v>
+      </c>
+      <c r="AL43">
+        <v>56.22652757078987</v>
+      </c>
+      <c r="AM43">
+        <v>1797.736424441131</v>
+      </c>
+      <c r="AN43">
+        <v>492.1893244928372</v>
+      </c>
+      <c r="AO43">
+        <v>2289.925748933968</v>
+      </c>
+      <c r="AP43">
+        <v>1044.762383893162</v>
+      </c>
+      <c r="AQ43">
+        <v>1320.464383705812</v>
+      </c>
+      <c r="AR43">
+        <v>33.70015345248996</v>
+      </c>
+      <c r="AS43">
+        <v>179.0631457546213</v>
+      </c>
+      <c r="AT43">
+        <v>3.434123046902991</v>
+      </c>
+      <c r="AU43">
+        <v>176.3052828</v>
+      </c>
+      <c r="AV43">
+        <v>125.9049120695825</v>
+      </c>
+      <c r="AW43">
+        <v>21.34942011218635</v>
+      </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:49">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>0</v>
+      <c r="B44" t="s">
+        <v>49</v>
       </c>
       <c r="C44" t="s">
         <v>50</v>
@@ -3182,13 +7013,100 @@
       <c r="R44" t="s">
         <v>75</v>
       </c>
+      <c r="S44">
+        <v>264.9767566015914</v>
+      </c>
+      <c r="T44">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U44">
+        <v>590.7346286000002</v>
+      </c>
+      <c r="V44" t="s">
+        <v>119</v>
+      </c>
+      <c r="W44">
+        <v>264.9767566015914</v>
+      </c>
+      <c r="X44">
+        <v>246.9767566015914</v>
+      </c>
+      <c r="Y44">
+        <v>18</v>
+      </c>
+      <c r="Z44">
+        <v>18</v>
+      </c>
+      <c r="AA44">
+        <v>438</v>
+      </c>
+      <c r="AB44">
+        <v>5.847353292220189</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0.1157187171999677</v>
+      </c>
+      <c r="AF44">
+        <v>0.1157187171999677</v>
+      </c>
+      <c r="AG44">
+        <v>0.1078578884378011</v>
+      </c>
+      <c r="AI44">
+        <v>89.89773823357208</v>
+      </c>
+      <c r="AJ44">
+        <v>177.4299001153107</v>
+      </c>
+      <c r="AL44">
+        <v>56.22652757078987</v>
+      </c>
+      <c r="AM44">
+        <v>1797.736424441131</v>
+      </c>
+      <c r="AN44">
+        <v>492.0984701481187</v>
+      </c>
+      <c r="AO44">
+        <v>2289.83489458925</v>
+      </c>
+      <c r="AP44">
+        <v>1044.762383893162</v>
+      </c>
+      <c r="AQ44">
+        <v>1325.254526022328</v>
+      </c>
+      <c r="AR44">
+        <v>40.04483041004632</v>
+      </c>
+      <c r="AS44">
+        <v>181.5859760963904</v>
+      </c>
+      <c r="AT44">
+        <v>4.156075981079725</v>
+      </c>
+      <c r="AU44">
+        <v>163.213187604694</v>
+      </c>
+      <c r="AV44">
+        <v>120.0161860821988</v>
+      </c>
+      <c r="AW44">
+        <v>20.35088174729139</v>
+      </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:49">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>0</v>
+      <c r="B45" t="s">
+        <v>49</v>
       </c>
       <c r="C45" t="s">
         <v>50</v>
@@ -3238,13 +7156,100 @@
       <c r="R45" t="s">
         <v>75</v>
       </c>
+      <c r="S45">
+        <v>265.4367842908905</v>
+      </c>
+      <c r="T45">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U45">
+        <v>514.4375057999996</v>
+      </c>
+      <c r="V45" t="s">
+        <v>120</v>
+      </c>
+      <c r="W45">
+        <v>265.4367842908905</v>
+      </c>
+      <c r="X45">
+        <v>247.4367842908905</v>
+      </c>
+      <c r="Y45">
+        <v>18</v>
+      </c>
+      <c r="Z45">
+        <v>18</v>
+      </c>
+      <c r="AA45">
+        <v>438</v>
+      </c>
+      <c r="AB45">
+        <v>5.847353292220189</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0.1159391116994101</v>
+      </c>
+      <c r="AF45">
+        <v>0.1159391116994101</v>
+      </c>
+      <c r="AG45">
+        <v>0.1080769609573247</v>
+      </c>
+      <c r="AI45">
+        <v>89.31821201306066</v>
+      </c>
+      <c r="AJ45">
+        <v>177.9791303466804</v>
+      </c>
+      <c r="AL45">
+        <v>56.22652757078987</v>
+      </c>
+      <c r="AM45">
+        <v>1797.736424441131</v>
+      </c>
+      <c r="AN45">
+        <v>491.7134462726965</v>
+      </c>
+      <c r="AO45">
+        <v>2289.449870713827</v>
+      </c>
+      <c r="AP45">
+        <v>1044.762383893162</v>
+      </c>
+      <c r="AQ45">
+        <v>1325.471215521061</v>
+      </c>
+      <c r="AR45">
+        <v>41.75373737307244</v>
+      </c>
+      <c r="AS45">
+        <v>182.9348083721554</v>
+      </c>
+      <c r="AT45">
+        <v>4.955678025475049</v>
+      </c>
+      <c r="AU45">
+        <v>164.301394465624</v>
+      </c>
+      <c r="AV45">
+        <v>117.1245778185866</v>
+      </c>
+      <c r="AW45">
+        <v>19.86055806885058</v>
+      </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:49">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>0</v>
+      <c r="B46" t="s">
+        <v>49</v>
       </c>
       <c r="C46" t="s">
         <v>50</v>
@@ -3294,13 +7299,100 @@
       <c r="R46" t="s">
         <v>76</v>
       </c>
+      <c r="S46">
+        <v>321.6053583569314</v>
+      </c>
+      <c r="T46">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U46">
+        <v>320.7242601000007</v>
+      </c>
+      <c r="V46" t="s">
+        <v>121</v>
+      </c>
+      <c r="W46">
+        <v>321.6053583569314</v>
+      </c>
+      <c r="X46">
+        <v>303.6053583569314</v>
+      </c>
+      <c r="Y46">
+        <v>18</v>
+      </c>
+      <c r="Z46">
+        <v>18</v>
+      </c>
+      <c r="AA46">
+        <v>438</v>
+      </c>
+      <c r="AB46">
+        <v>5.847353292220189</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0.1404374296552593</v>
+      </c>
+      <c r="AF46">
+        <v>0.1404374296552593</v>
+      </c>
+      <c r="AG46">
+        <v>0.1325772567193683</v>
+      </c>
+      <c r="AI46">
+        <v>73.1707945365045</v>
+      </c>
+      <c r="AJ46">
+        <v>230.4345638204269</v>
+      </c>
+      <c r="AL46">
+        <v>56.22652757078987</v>
+      </c>
+      <c r="AM46">
+        <v>1797.736424441131</v>
+      </c>
+      <c r="AN46">
+        <v>492.2895262359538</v>
+      </c>
+      <c r="AO46">
+        <v>2290.025950677085</v>
+      </c>
+      <c r="AP46">
+        <v>1044.762383893162</v>
+      </c>
+      <c r="AQ46">
+        <v>1282.714156889413</v>
+      </c>
+      <c r="AR46">
+        <v>33.60145646010258</v>
+      </c>
+      <c r="AS46">
+        <v>233.3728037218459</v>
+      </c>
+      <c r="AT46">
+        <v>2.938239901418956</v>
+      </c>
+      <c r="AU46">
+        <v>131.8258480558971</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:49">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>0</v>
+      <c r="B47" t="s">
+        <v>49</v>
       </c>
       <c r="C47" t="s">
         <v>50</v>
@@ -3350,13 +7442,100 @@
       <c r="R47" t="s">
         <v>75</v>
       </c>
+      <c r="S47">
+        <v>331.4268362162201</v>
+      </c>
+      <c r="T47">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U47">
+        <v>575.8873875000008</v>
+      </c>
+      <c r="V47" t="s">
+        <v>122</v>
+      </c>
+      <c r="W47">
+        <v>331.4268362162201</v>
+      </c>
+      <c r="X47">
+        <v>313.4268362162201</v>
+      </c>
+      <c r="Y47">
+        <v>18</v>
+      </c>
+      <c r="Z47">
+        <v>18</v>
+      </c>
+      <c r="AA47">
+        <v>438</v>
+      </c>
+      <c r="AB47">
+        <v>5.573745938787744</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0.1397581128245031</v>
+      </c>
+      <c r="AF47">
+        <v>0.1397581128245031</v>
+      </c>
+      <c r="AG47">
+        <v>0.1321677617848551</v>
+      </c>
+      <c r="AI47">
+        <v>86.37921588933969</v>
+      </c>
+      <c r="AJ47">
+        <v>227.0476203268804</v>
+      </c>
+      <c r="AL47">
+        <v>61.23397913561848</v>
+      </c>
+      <c r="AM47">
+        <v>1885.984778539493</v>
+      </c>
+      <c r="AN47">
+        <v>485.4470440438518</v>
+      </c>
+      <c r="AO47">
+        <v>2371.431822583344</v>
+      </c>
+      <c r="AP47">
+        <v>754.0844339633973</v>
+      </c>
+      <c r="AQ47">
+        <v>1666.461088405236</v>
+      </c>
+      <c r="AR47">
+        <v>26.48137051518937</v>
+      </c>
+      <c r="AS47">
+        <v>231.3573113235563</v>
+      </c>
+      <c r="AT47">
+        <v>4.309690996675889</v>
+      </c>
+      <c r="AU47">
+        <v>143.9653598155662</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:49">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>0</v>
+      <c r="B48" t="s">
+        <v>49</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
@@ -3406,13 +7585,100 @@
       <c r="R48" t="s">
         <v>75</v>
       </c>
+      <c r="S48">
+        <v>346.4949283483102</v>
+      </c>
+      <c r="T48">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U48">
+        <v>655.8360911999998</v>
+      </c>
+      <c r="V48" t="s">
+        <v>123</v>
+      </c>
+      <c r="W48">
+        <v>346.4949283483102</v>
+      </c>
+      <c r="X48">
+        <v>328.4949283483102</v>
+      </c>
+      <c r="Y48">
+        <v>18</v>
+      </c>
+      <c r="Z48">
+        <v>18</v>
+      </c>
+      <c r="AA48">
+        <v>438</v>
+      </c>
+      <c r="AB48">
+        <v>5.573745938787744</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0.1460827693327204</v>
+      </c>
+      <c r="AF48">
+        <v>0.1460827693327204</v>
+      </c>
+      <c r="AG48">
+        <v>0.1384939429665644</v>
+      </c>
+      <c r="AI48">
+        <v>104.4649509</v>
+      </c>
+      <c r="AJ48">
+        <v>224.0299774483102</v>
+      </c>
+      <c r="AL48">
+        <v>61.23397913561848</v>
+      </c>
+      <c r="AM48">
+        <v>1885.984778539493</v>
+      </c>
+      <c r="AN48">
+        <v>485.9234891572127</v>
+      </c>
+      <c r="AO48">
+        <v>2371.908267696705</v>
+      </c>
+      <c r="AP48">
+        <v>754.0844339633973</v>
+      </c>
+      <c r="AQ48">
+        <v>1677.6339165999</v>
+      </c>
+      <c r="AR48">
+        <v>36.27654865329086</v>
+      </c>
+      <c r="AS48">
+        <v>229.3503709968734</v>
+      </c>
+      <c r="AT48">
+        <v>5.320393548563207</v>
+      </c>
+      <c r="AU48">
+        <v>174.1082515</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:49">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>0</v>
+      <c r="B49" t="s">
+        <v>49</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
@@ -3462,13 +7728,100 @@
       <c r="R49" t="s">
         <v>75</v>
       </c>
+      <c r="S49">
+        <v>345.647086552358</v>
+      </c>
+      <c r="T49">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U49">
+        <v>666.5767551999998</v>
+      </c>
+      <c r="V49" t="s">
+        <v>124</v>
+      </c>
+      <c r="W49">
+        <v>345.647086552358</v>
+      </c>
+      <c r="X49">
+        <v>327.647086552358</v>
+      </c>
+      <c r="Y49">
+        <v>18</v>
+      </c>
+      <c r="Z49">
+        <v>18</v>
+      </c>
+      <c r="AA49">
+        <v>438</v>
+      </c>
+      <c r="AB49">
+        <v>5.573745938787744</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0.1456889952997613</v>
+      </c>
+      <c r="AF49">
+        <v>0.1456889952997613</v>
+      </c>
+      <c r="AG49">
+        <v>0.1381020604826542</v>
+      </c>
+      <c r="AI49">
+        <v>103.7234272364221</v>
+      </c>
+      <c r="AJ49">
+        <v>223.9236593159359</v>
+      </c>
+      <c r="AL49">
+        <v>61.23397913561848</v>
+      </c>
+      <c r="AM49">
+        <v>1885.984778539493</v>
+      </c>
+      <c r="AN49">
+        <v>486.5148453420115</v>
+      </c>
+      <c r="AO49">
+        <v>2372.499623881504</v>
+      </c>
+      <c r="AP49">
+        <v>754.0844339633973</v>
+      </c>
+      <c r="AQ49">
+        <v>1672.118099908362</v>
+      </c>
+      <c r="AR49">
+        <v>30.2626021661455</v>
+      </c>
+      <c r="AS49">
+        <v>228.8941920553858</v>
+      </c>
+      <c r="AT49">
+        <v>4.970532739449943</v>
+      </c>
+      <c r="AU49">
+        <v>172.8723787273702</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:49">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>0</v>
+      <c r="B50" t="s">
+        <v>49</v>
       </c>
       <c r="C50" t="s">
         <v>50</v>
@@ -3518,13 +7871,100 @@
       <c r="R50" t="s">
         <v>75</v>
       </c>
+      <c r="S50">
+        <v>349.8354328318715</v>
+      </c>
+      <c r="T50">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U50">
+        <v>535.0101238999996</v>
+      </c>
+      <c r="V50" t="s">
+        <v>125</v>
+      </c>
+      <c r="W50">
+        <v>349.8354328318715</v>
+      </c>
+      <c r="X50">
+        <v>331.8354328318715</v>
+      </c>
+      <c r="Y50">
+        <v>18</v>
+      </c>
+      <c r="Z50">
+        <v>18</v>
+      </c>
+      <c r="AA50">
+        <v>438</v>
+      </c>
+      <c r="AB50">
+        <v>5.573745938787744</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0.1474879718363215</v>
+      </c>
+      <c r="AF50">
+        <v>0.1474879718363215</v>
+      </c>
+      <c r="AG50">
+        <v>0.1398993080135529</v>
+      </c>
+      <c r="AI50">
+        <v>106.3392</v>
+      </c>
+      <c r="AJ50">
+        <v>225.4962328318715</v>
+      </c>
+      <c r="AL50">
+        <v>61.23397913561848</v>
+      </c>
+      <c r="AM50">
+        <v>1885.984778539493</v>
+      </c>
+      <c r="AN50">
+        <v>485.9742936220684</v>
+      </c>
+      <c r="AO50">
+        <v>2371.959072161561</v>
+      </c>
+      <c r="AP50">
+        <v>754.0844339633973</v>
+      </c>
+      <c r="AQ50">
+        <v>1676.252154028216</v>
+      </c>
+      <c r="AR50">
+        <v>34.26836079395585</v>
+      </c>
+      <c r="AS50">
+        <v>231.0053180955525</v>
+      </c>
+      <c r="AT50">
+        <v>5.509085263681047</v>
+      </c>
+      <c r="AU50">
+        <v>177.232</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:49">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>0</v>
+      <c r="B51" t="s">
+        <v>49</v>
       </c>
       <c r="C51" t="s">
         <v>50</v>
@@ -3574,13 +8014,100 @@
       <c r="R51" t="s">
         <v>76</v>
       </c>
+      <c r="S51">
+        <v>393.6393117248365</v>
+      </c>
+      <c r="T51">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U51">
+        <v>309.1615806999998</v>
+      </c>
+      <c r="V51" t="s">
+        <v>126</v>
+      </c>
+      <c r="W51">
+        <v>393.6393117248365</v>
+      </c>
+      <c r="X51">
+        <v>375.6393117248365</v>
+      </c>
+      <c r="Y51">
+        <v>18</v>
+      </c>
+      <c r="Z51">
+        <v>18</v>
+      </c>
+      <c r="AA51">
+        <v>438</v>
+      </c>
+      <c r="AB51">
+        <v>5.573745938787744</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0.165903642093988</v>
+      </c>
+      <c r="AF51">
+        <v>0.165903642093988</v>
+      </c>
+      <c r="AG51">
+        <v>0.1583173429903577</v>
+      </c>
+      <c r="AI51">
+        <v>98.25227975453538</v>
+      </c>
+      <c r="AJ51">
+        <v>277.3870319703011</v>
+      </c>
+      <c r="AL51">
+        <v>61.23397913561848</v>
+      </c>
+      <c r="AM51">
+        <v>1885.984778539493</v>
+      </c>
+      <c r="AN51">
+        <v>486.7136550598812</v>
+      </c>
+      <c r="AO51">
+        <v>2372.698433599374</v>
+      </c>
+      <c r="AP51">
+        <v>754.0844339633973</v>
+      </c>
+      <c r="AQ51">
+        <v>1631.701698957731</v>
+      </c>
+      <c r="AR51">
+        <v>7.964065182642559</v>
+      </c>
+      <c r="AS51">
+        <v>278.168069428434</v>
+      </c>
+      <c r="AT51">
+        <v>0.7810374581329216</v>
+      </c>
+      <c r="AU51">
+        <v>163.7537995908923</v>
+      </c>
+      <c r="AV51">
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:49">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>0</v>
+      <c r="B52" t="s">
+        <v>49</v>
       </c>
       <c r="C52" t="s">
         <v>50</v>
@@ -3630,13 +8157,100 @@
       <c r="R52" t="s">
         <v>75</v>
       </c>
+      <c r="S52">
+        <v>240.8690293719482</v>
+      </c>
+      <c r="T52">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U52">
+        <v>457.5512675999998</v>
+      </c>
+      <c r="V52" t="s">
+        <v>127</v>
+      </c>
+      <c r="W52">
+        <v>240.8690293719482</v>
+      </c>
+      <c r="X52">
+        <v>222.8690293719482</v>
+      </c>
+      <c r="Y52">
+        <v>18</v>
+      </c>
+      <c r="Z52">
+        <v>18</v>
+      </c>
+      <c r="AA52">
+        <v>438</v>
+      </c>
+      <c r="AB52">
+        <v>6.018262994861534</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0.1107532987756278</v>
+      </c>
+      <c r="AF52">
+        <v>0.1107532987756278</v>
+      </c>
+      <c r="AG52">
+        <v>0.1024767703105138</v>
+      </c>
+      <c r="AI52">
+        <v>64.28847764218251</v>
+      </c>
+      <c r="AJ52">
+        <v>173.1655835271974</v>
+      </c>
+      <c r="AL52">
+        <v>49.50223546944859</v>
+      </c>
+      <c r="AM52">
+        <v>1746.683388375562</v>
+      </c>
+      <c r="AN52">
+        <v>428.1414884880929</v>
+      </c>
+      <c r="AO52">
+        <v>2174.824876863655</v>
+      </c>
+      <c r="AP52">
+        <v>946.5462035932005</v>
+      </c>
+      <c r="AQ52">
+        <v>1280.957119495001</v>
+      </c>
+      <c r="AR52">
+        <v>17.31931282847277</v>
+      </c>
+      <c r="AS52">
+        <v>175.9562196399093</v>
+      </c>
+      <c r="AT52">
+        <v>2.790636112711839</v>
+      </c>
+      <c r="AU52">
+        <v>107.1474627369709</v>
+      </c>
+      <c r="AV52">
+        <v>86.01297535662418</v>
+      </c>
+      <c r="AW52">
+        <v>14.58503179743169</v>
+      </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:49">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>0</v>
+      <c r="B53" t="s">
+        <v>49</v>
       </c>
       <c r="C53" t="s">
         <v>50</v>
@@ -3686,13 +8300,100 @@
       <c r="R53" t="s">
         <v>75</v>
       </c>
+      <c r="S53">
+        <v>251.350148552769</v>
+      </c>
+      <c r="T53">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U53">
+        <v>522.0653385000005</v>
+      </c>
+      <c r="V53" t="s">
+        <v>128</v>
+      </c>
+      <c r="W53">
+        <v>251.350148552769</v>
+      </c>
+      <c r="X53">
+        <v>233.350148552769</v>
+      </c>
+      <c r="Y53">
+        <v>18</v>
+      </c>
+      <c r="Z53">
+        <v>18</v>
+      </c>
+      <c r="AA53">
+        <v>438</v>
+      </c>
+      <c r="AB53">
+        <v>6.018262994861534</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0.1155853607713916</v>
+      </c>
+      <c r="AF53">
+        <v>0.1155853607713916</v>
+      </c>
+      <c r="AG53">
+        <v>0.1073079179058734</v>
+      </c>
+      <c r="AI53">
+        <v>71.02123259286905</v>
+      </c>
+      <c r="AJ53">
+        <v>171.081755793773</v>
+      </c>
+      <c r="AL53">
+        <v>49.50223546944859</v>
+      </c>
+      <c r="AM53">
+        <v>1746.683388375562</v>
+      </c>
+      <c r="AN53">
+        <v>427.9012378721981</v>
+      </c>
+      <c r="AO53">
+        <v>2174.58462624776</v>
+      </c>
+      <c r="AP53">
+        <v>946.5462035932005</v>
+      </c>
+      <c r="AQ53">
+        <v>1297.084015711967</v>
+      </c>
+      <c r="AR53">
+        <v>37.06889753340926</v>
+      </c>
+      <c r="AS53">
+        <v>176.0684613448726</v>
+      </c>
+      <c r="AT53">
+        <v>4.986705551099589</v>
+      </c>
+      <c r="AU53">
+        <v>118.3687209881151</v>
+      </c>
+      <c r="AV53">
+        <v>51.61852283818613</v>
+      </c>
+      <c r="AW53">
+        <v>8.752839833873018</v>
+      </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:49">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>0</v>
+      <c r="B54" t="s">
+        <v>49</v>
       </c>
       <c r="C54" t="s">
         <v>50</v>
@@ -3742,13 +8443,100 @@
       <c r="R54" t="s">
         <v>75</v>
       </c>
+      <c r="S54">
+        <v>266.9851379414504</v>
+      </c>
+      <c r="T54">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U54">
+        <v>543.7723829000006</v>
+      </c>
+      <c r="V54" t="s">
+        <v>129</v>
+      </c>
+      <c r="W54">
+        <v>266.9851379414504</v>
+      </c>
+      <c r="X54">
+        <v>248.9851379414504</v>
+      </c>
+      <c r="Y54">
+        <v>18</v>
+      </c>
+      <c r="Z54">
+        <v>18</v>
+      </c>
+      <c r="AA54">
+        <v>438</v>
+      </c>
+      <c r="AB54">
+        <v>6.018262994861534</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0.1227389895847405</v>
+      </c>
+      <c r="AF54">
+        <v>0.1227389895847405</v>
+      </c>
+      <c r="AG54">
+        <v>0.1144639903486039</v>
+      </c>
+      <c r="AI54">
+        <v>80.33274580726943</v>
+      </c>
+      <c r="AJ54">
+        <v>168.6523921341809</v>
+      </c>
+      <c r="AL54">
+        <v>49.50223546944859</v>
+      </c>
+      <c r="AM54">
+        <v>1746.683388375562</v>
+      </c>
+      <c r="AN54">
+        <v>428.5433985218531</v>
+      </c>
+      <c r="AO54">
+        <v>2175.226786897415</v>
+      </c>
+      <c r="AP54">
+        <v>946.5462035932005</v>
+      </c>
+      <c r="AQ54">
+        <v>1282.376177983919</v>
+      </c>
+      <c r="AR54">
+        <v>29.04771074684566</v>
+      </c>
+      <c r="AS54">
+        <v>172.6862903439856</v>
+      </c>
+      <c r="AT54">
+        <v>4.033898209804636</v>
+      </c>
+      <c r="AU54">
+        <v>133.8879096787824</v>
+      </c>
+      <c r="AV54">
+        <v>3.552713678800501E-15</v>
+      </c>
+      <c r="AW54">
+        <v>6.024258753709678E-16</v>
+      </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:49">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>0</v>
+      <c r="B55" t="s">
+        <v>49</v>
       </c>
       <c r="C55" t="s">
         <v>50</v>
@@ -3798,13 +8586,100 @@
       <c r="R55" t="s">
         <v>75</v>
       </c>
+      <c r="S55">
+        <v>283.5364654868433</v>
+      </c>
+      <c r="T55">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U55">
+        <v>472.8503875000006</v>
+      </c>
+      <c r="V55" t="s">
+        <v>130</v>
+      </c>
+      <c r="W55">
+        <v>283.5364654868433</v>
+      </c>
+      <c r="X55">
+        <v>265.5364654868433</v>
+      </c>
+      <c r="Y55">
+        <v>18</v>
+      </c>
+      <c r="Z55">
+        <v>18</v>
+      </c>
+      <c r="AA55">
+        <v>438</v>
+      </c>
+      <c r="AB55">
+        <v>6.018262994861534</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0.1303480019622502</v>
+      </c>
+      <c r="AF55">
+        <v>0.1303480019622502</v>
+      </c>
+      <c r="AG55">
+        <v>0.1220730027261135</v>
+      </c>
+      <c r="AI55">
+        <v>97.21631733678612</v>
+      </c>
+      <c r="AJ55">
+        <v>168.3201481500572</v>
+      </c>
+      <c r="AL55">
+        <v>49.50223546944859</v>
+      </c>
+      <c r="AM55">
+        <v>1746.683388375562</v>
+      </c>
+      <c r="AN55">
+        <v>428.5433985218531</v>
+      </c>
+      <c r="AO55">
+        <v>2175.226786897415</v>
+      </c>
+      <c r="AP55">
+        <v>946.5462035932005</v>
+      </c>
+      <c r="AQ55">
+        <v>1285.444063547057</v>
+      </c>
+      <c r="AR55">
+        <v>32.27785137833081</v>
+      </c>
+      <c r="AS55">
+        <v>173.3425137937593</v>
+      </c>
+      <c r="AT55">
+        <v>5.022365643702141</v>
+      </c>
+      <c r="AU55">
+        <v>162.0271955613102</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:49">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>0</v>
+      <c r="B56" t="s">
+        <v>49</v>
       </c>
       <c r="C56" t="s">
         <v>50</v>
@@ -3854,13 +8729,100 @@
       <c r="R56" t="s">
         <v>76</v>
       </c>
+      <c r="S56">
+        <v>311.3323450628319</v>
+      </c>
+      <c r="T56">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U56">
+        <v>254.469685</v>
+      </c>
+      <c r="V56" t="s">
+        <v>131</v>
+      </c>
+      <c r="W56">
+        <v>311.3323450628319</v>
+      </c>
+      <c r="X56">
+        <v>293.3323450628319</v>
+      </c>
+      <c r="Y56">
+        <v>18</v>
+      </c>
+      <c r="Z56">
+        <v>18</v>
+      </c>
+      <c r="AA56">
+        <v>438</v>
+      </c>
+      <c r="AB56">
+        <v>6.018262994861534</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0.143145441445415</v>
+      </c>
+      <c r="AF56">
+        <v>0.143145441445415</v>
+      </c>
+      <c r="AG56">
+        <v>0.1348693404013764</v>
+      </c>
+      <c r="AI56">
+        <v>68.286223014851</v>
+      </c>
+      <c r="AJ56">
+        <v>225.0461220479809</v>
+      </c>
+      <c r="AL56">
+        <v>49.50223546944859</v>
+      </c>
+      <c r="AM56">
+        <v>1746.683388375562</v>
+      </c>
+      <c r="AN56">
+        <v>428.2538078015926</v>
+      </c>
+      <c r="AO56">
+        <v>2174.937196177154</v>
+      </c>
+      <c r="AP56">
+        <v>946.5462035932005</v>
+      </c>
+      <c r="AQ56">
+        <v>1237.449617526015</v>
+      </c>
+      <c r="AR56">
+        <v>5.497604111405827</v>
+      </c>
+      <c r="AS56">
+        <v>225.5247071922764</v>
+      </c>
+      <c r="AT56">
+        <v>0.4785851442954323</v>
+      </c>
+      <c r="AU56">
+        <v>113.8103716914183</v>
+      </c>
+      <c r="AV56">
+        <v>0</v>
+      </c>
+      <c r="AW56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:49">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>0</v>
+      <c r="B57" t="s">
+        <v>49</v>
       </c>
       <c r="C57" t="s">
         <v>50</v>
@@ -3910,13 +8872,100 @@
       <c r="R57" t="s">
         <v>75</v>
       </c>
+      <c r="S57">
+        <v>202.8455988205951</v>
+      </c>
+      <c r="T57">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U57">
+        <v>349.1253089999991</v>
+      </c>
+      <c r="V57" t="s">
+        <v>132</v>
+      </c>
+      <c r="W57">
+        <v>202.8455988205951</v>
+      </c>
+      <c r="X57">
+        <v>184.8455988205951</v>
+      </c>
+      <c r="Y57">
+        <v>18</v>
+      </c>
+      <c r="Z57">
+        <v>18</v>
+      </c>
+      <c r="AA57">
+        <v>438</v>
+      </c>
+      <c r="AB57">
+        <v>6.841483455912926</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0.1095188929355914</v>
+      </c>
+      <c r="AF57">
+        <v>0.1095188929355914</v>
+      </c>
+      <c r="AG57">
+        <v>0.09980046628841441</v>
+      </c>
+      <c r="AI57">
+        <v>64.32296054434269</v>
+      </c>
+      <c r="AJ57">
+        <v>146.6135775786487</v>
+      </c>
+      <c r="AL57">
+        <v>33.90760059612519</v>
+      </c>
+      <c r="AM57">
+        <v>1536.50886795827</v>
+      </c>
+      <c r="AN57">
+        <v>315.6427871893912</v>
+      </c>
+      <c r="AO57">
+        <v>1852.151655147661</v>
+      </c>
+      <c r="AP57">
+        <v>778.1263206737931</v>
+      </c>
+      <c r="AQ57">
+        <v>1190.107180149912</v>
+      </c>
+      <c r="AR57">
+        <v>71.97208595028539</v>
+      </c>
+      <c r="AS57">
+        <v>158.9198813546822</v>
+      </c>
+      <c r="AT57">
+        <v>12.30630377603347</v>
+      </c>
+      <c r="AU57">
+        <v>107.2049342405712</v>
+      </c>
+      <c r="AV57">
+        <v>153.8672901380561</v>
+      </c>
+      <c r="AW57">
+        <v>26.09093930239636</v>
+      </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:49">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>0</v>
+      <c r="B58" t="s">
+        <v>49</v>
       </c>
       <c r="C58" t="s">
         <v>50</v>
@@ -3966,13 +9015,100 @@
       <c r="R58" t="s">
         <v>75</v>
       </c>
+      <c r="S58">
+        <v>240.6643907250286</v>
+      </c>
+      <c r="T58">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U58">
+        <v>400.4199148999996</v>
+      </c>
+      <c r="V58" t="s">
+        <v>133</v>
+      </c>
+      <c r="W58">
+        <v>240.6643907250286</v>
+      </c>
+      <c r="X58">
+        <v>222.6643907250286</v>
+      </c>
+      <c r="Y58">
+        <v>18</v>
+      </c>
+      <c r="Z58">
+        <v>18</v>
+      </c>
+      <c r="AA58">
+        <v>438</v>
+      </c>
+      <c r="AB58">
+        <v>6.841483455912926</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0.1299377348804852</v>
+      </c>
+      <c r="AF58">
+        <v>0.1299377348804852</v>
+      </c>
+      <c r="AG58">
+        <v>0.1202193082333082</v>
+      </c>
+      <c r="AI58">
+        <v>79.2482360042364</v>
+      </c>
+      <c r="AJ58">
+        <v>143.4161547207922</v>
+      </c>
+      <c r="AL58">
+        <v>33.90760059612519</v>
+      </c>
+      <c r="AM58">
+        <v>1536.50886795827</v>
+      </c>
+      <c r="AN58">
+        <v>315.6427871893916</v>
+      </c>
+      <c r="AO58">
+        <v>1852.151655147661</v>
+      </c>
+      <c r="AP58">
+        <v>778.1263206737931</v>
+      </c>
+      <c r="AQ58">
+        <v>1197.570029051876</v>
+      </c>
+      <c r="AR58">
+        <v>101.2830155754597</v>
+      </c>
+      <c r="AS58">
+        <v>159.7380807816018</v>
+      </c>
+      <c r="AT58">
+        <v>16.32192606080962</v>
+      </c>
+      <c r="AU58">
+        <v>132.080393340394</v>
+      </c>
+      <c r="AV58">
+        <v>3.907985046680551E-14</v>
+      </c>
+      <c r="AW58">
+        <v>6.626684629080646E-15</v>
+      </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:49">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>0</v>
+      <c r="B59" t="s">
+        <v>49</v>
       </c>
       <c r="C59" t="s">
         <v>50</v>
@@ -4022,13 +9158,100 @@
       <c r="R59" t="s">
         <v>75</v>
       </c>
+      <c r="S59">
+        <v>233.3710353135369</v>
+      </c>
+      <c r="T59">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U59">
+        <v>397.8856850000011</v>
+      </c>
+      <c r="V59" t="s">
+        <v>134</v>
+      </c>
+      <c r="W59">
+        <v>233.3710353135369</v>
+      </c>
+      <c r="X59">
+        <v>215.3710353135369</v>
+      </c>
+      <c r="Y59">
+        <v>18</v>
+      </c>
+      <c r="Z59">
+        <v>18</v>
+      </c>
+      <c r="AA59">
+        <v>438</v>
+      </c>
+      <c r="AB59">
+        <v>6.841483455912926</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0.1260038140140017</v>
+      </c>
+      <c r="AF59">
+        <v>0.1260038140140017</v>
+      </c>
+      <c r="AG59">
+        <v>0.1162850901406434</v>
+      </c>
+      <c r="AI59">
+        <v>77.11168840759166</v>
+      </c>
+      <c r="AJ59">
+        <v>142.9515417587115</v>
+      </c>
+      <c r="AL59">
+        <v>33.90760059612519</v>
+      </c>
+      <c r="AM59">
+        <v>1536.50886795827</v>
+      </c>
+      <c r="AN59">
+        <v>315.5861431308738</v>
+      </c>
+      <c r="AO59">
+        <v>1852.095011089143</v>
+      </c>
+      <c r="AP59">
+        <v>778.1263206737931</v>
+      </c>
+      <c r="AQ59">
+        <v>1195.941530517316</v>
+      </c>
+      <c r="AR59">
+        <v>95.14714323728265</v>
+      </c>
+      <c r="AS59">
+        <v>157.3745992835653</v>
+      </c>
+      <c r="AT59">
+        <v>14.42305752485381</v>
+      </c>
+      <c r="AU59">
+        <v>128.5194806793194</v>
+      </c>
+      <c r="AV59">
+        <v>27.67149539643338</v>
+      </c>
+      <c r="AW59">
+        <v>4.692194852766286</v>
+      </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:49">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>0</v>
+      <c r="B60" t="s">
+        <v>49</v>
       </c>
       <c r="C60" t="s">
         <v>50</v>
@@ -4078,13 +9301,100 @@
       <c r="R60" t="s">
         <v>75</v>
       </c>
+      <c r="S60">
+        <v>254.0005064602069</v>
+      </c>
+      <c r="T60">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U60">
+        <v>336.3567023999985</v>
+      </c>
+      <c r="V60" t="s">
+        <v>135</v>
+      </c>
+      <c r="W60">
+        <v>254.0005064602069</v>
+      </c>
+      <c r="X60">
+        <v>236.0005064602069</v>
+      </c>
+      <c r="Y60">
+        <v>18</v>
+      </c>
+      <c r="Z60">
+        <v>18</v>
+      </c>
+      <c r="AA60">
+        <v>438</v>
+      </c>
+      <c r="AB60">
+        <v>6.841483455912926</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0.1371363061647967</v>
+      </c>
+      <c r="AF60">
+        <v>0.1371363061647967</v>
+      </c>
+      <c r="AG60">
+        <v>0.1274180046331694</v>
+      </c>
+      <c r="AI60">
+        <v>94.69092430217424</v>
+      </c>
+      <c r="AJ60">
+        <v>141.3095821580327</v>
+      </c>
+      <c r="AL60">
+        <v>33.90760059612519</v>
+      </c>
+      <c r="AM60">
+        <v>1536.50886795827</v>
+      </c>
+      <c r="AN60">
+        <v>315.6666321968431</v>
+      </c>
+      <c r="AO60">
+        <v>1852.175500155113</v>
+      </c>
+      <c r="AP60">
+        <v>778.1263206737931</v>
+      </c>
+      <c r="AQ60">
+        <v>1193.000501723263</v>
+      </c>
+      <c r="AR60">
+        <v>95.93848487218605</v>
+      </c>
+      <c r="AS60">
+        <v>157.3506665696832</v>
+      </c>
+      <c r="AT60">
+        <v>16.04108441165051</v>
+      </c>
+      <c r="AU60">
+        <v>157.8182071702904</v>
+      </c>
+      <c r="AV60">
+        <v>0</v>
+      </c>
+      <c r="AW60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:49">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>0</v>
+      <c r="B61" t="s">
+        <v>49</v>
       </c>
       <c r="C61" t="s">
         <v>50</v>
@@ -4134,13 +9444,100 @@
       <c r="R61" t="s">
         <v>76</v>
       </c>
+      <c r="S61">
+        <v>265.3496095240812</v>
+      </c>
+      <c r="T61">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U61">
+        <v>226.0071495000011</v>
+      </c>
+      <c r="V61" t="s">
+        <v>136</v>
+      </c>
+      <c r="W61">
+        <v>265.3496095240812</v>
+      </c>
+      <c r="X61">
+        <v>247.3496095240812</v>
+      </c>
+      <c r="Y61">
+        <v>18</v>
+      </c>
+      <c r="Z61">
+        <v>18</v>
+      </c>
+      <c r="AA61">
+        <v>438</v>
+      </c>
+      <c r="AB61">
+        <v>6.841483455912926</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0.1432645313344298</v>
+      </c>
+      <c r="AF61">
+        <v>0.1432645313344298</v>
+      </c>
+      <c r="AG61">
+        <v>0.133546176863719</v>
+      </c>
+      <c r="AI61">
+        <v>66.51025229604087</v>
+      </c>
+      <c r="AJ61">
+        <v>180.8393572280403</v>
+      </c>
+      <c r="AL61">
+        <v>33.90760059612519</v>
+      </c>
+      <c r="AM61">
+        <v>1536.50886795827</v>
+      </c>
+      <c r="AN61">
+        <v>315.6565427857325</v>
+      </c>
+      <c r="AO61">
+        <v>1852.165410744002</v>
+      </c>
+      <c r="AP61">
+        <v>778.1263206737931</v>
+      </c>
+      <c r="AQ61">
+        <v>1081.530231607958</v>
+      </c>
+      <c r="AR61">
+        <v>2.167515745882139</v>
+      </c>
+      <c r="AS61">
+        <v>181.0370940644617</v>
+      </c>
+      <c r="AT61">
+        <v>0.1977368364213304</v>
+      </c>
+      <c r="AU61">
+        <v>110.8504204934015</v>
+      </c>
+      <c r="AV61">
+        <v>0</v>
+      </c>
+      <c r="AW61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:49">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62">
-        <v>0</v>
+      <c r="B62" t="s">
+        <v>49</v>
       </c>
       <c r="C62" t="s">
         <v>50</v>
@@ -4190,13 +9587,100 @@
       <c r="R62" t="s">
         <v>75</v>
       </c>
+      <c r="S62">
+        <v>224.8173985568399</v>
+      </c>
+      <c r="T62">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U62">
+        <v>393.1079697000005</v>
+      </c>
+      <c r="V62" t="s">
+        <v>137</v>
+      </c>
+      <c r="W62">
+        <v>224.8173985568399</v>
+      </c>
+      <c r="X62">
+        <v>206.8173985568399</v>
+      </c>
+      <c r="Y62">
+        <v>18</v>
+      </c>
+      <c r="Z62">
+        <v>18</v>
+      </c>
+      <c r="AA62">
+        <v>438</v>
+      </c>
+      <c r="AB62">
+        <v>6.703517040913586</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0.1176890318582123</v>
+      </c>
+      <c r="AF62">
+        <v>0.1176890318582123</v>
+      </c>
+      <c r="AG62">
+        <v>0.1082662621480102</v>
+      </c>
+      <c r="AI62">
+        <v>68.86199065021117</v>
+      </c>
+      <c r="AJ62">
+        <v>137.9554079066287</v>
+      </c>
+      <c r="AL62">
+        <v>37.77049180327869</v>
+      </c>
+      <c r="AM62">
+        <v>1568.132061997022</v>
+      </c>
+      <c r="AN62">
+        <v>342.134298488397</v>
+      </c>
+      <c r="AO62">
+        <v>1910.266360485419</v>
+      </c>
+      <c r="AP62">
+        <v>887.7146236615458</v>
+      </c>
+      <c r="AQ62">
+        <v>1137.303415205714</v>
+      </c>
+      <c r="AR62">
+        <v>92.86087528654251</v>
+      </c>
+      <c r="AS62">
+        <v>152.7959273783542</v>
+      </c>
+      <c r="AT62">
+        <v>14.84051947172548</v>
+      </c>
+      <c r="AU62">
+        <v>114.7699844170186</v>
+      </c>
+      <c r="AV62">
+        <v>3.197442310920451E-14</v>
+      </c>
+      <c r="AW62">
+        <v>5.42183287833871E-15</v>
+      </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:49">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>0</v>
+      <c r="B63" t="s">
+        <v>49</v>
       </c>
       <c r="C63" t="s">
         <v>50</v>
@@ -4246,13 +9730,100 @@
       <c r="R63" t="s">
         <v>75</v>
       </c>
+      <c r="S63">
+        <v>255.7153614283293</v>
+      </c>
+      <c r="T63">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U63">
+        <v>437.9354528999993</v>
+      </c>
+      <c r="V63" t="s">
+        <v>138</v>
+      </c>
+      <c r="W63">
+        <v>255.7153614283293</v>
+      </c>
+      <c r="X63">
+        <v>237.7153614283293</v>
+      </c>
+      <c r="Y63">
+        <v>18</v>
+      </c>
+      <c r="Z63">
+        <v>18</v>
+      </c>
+      <c r="AA63">
+        <v>438</v>
+      </c>
+      <c r="AB63">
+        <v>6.703517040913586</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0.133855444254099</v>
+      </c>
+      <c r="AF63">
+        <v>0.133855444254099</v>
+      </c>
+      <c r="AG63">
+        <v>0.1244332570881978</v>
+      </c>
+      <c r="AI63">
+        <v>102.46581396</v>
+      </c>
+      <c r="AJ63">
+        <v>135.2495474683293</v>
+      </c>
+      <c r="AL63">
+        <v>37.77049180327869</v>
+      </c>
+      <c r="AM63">
+        <v>1568.132061997022</v>
+      </c>
+      <c r="AN63">
+        <v>342.2524042702032</v>
+      </c>
+      <c r="AO63">
+        <v>1910.384466267226</v>
+      </c>
+      <c r="AP63">
+        <v>887.7146236615458</v>
+      </c>
+      <c r="AQ63">
+        <v>1146.431954609711</v>
+      </c>
+      <c r="AR63">
+        <v>99.72153927685821</v>
+      </c>
+      <c r="AS63">
+        <v>150.5936624923728</v>
+      </c>
+      <c r="AT63">
+        <v>15.34411502404354</v>
+      </c>
+      <c r="AU63">
+        <v>170.7763566</v>
+      </c>
+      <c r="AV63">
+        <v>0</v>
+      </c>
+      <c r="AW63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:49">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64">
-        <v>0</v>
+      <c r="B64" t="s">
+        <v>49</v>
       </c>
       <c r="C64" t="s">
         <v>50</v>
@@ -4302,13 +9873,100 @@
       <c r="R64" t="s">
         <v>75</v>
       </c>
+      <c r="S64">
+        <v>235.8430072167952</v>
+      </c>
+      <c r="T64">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U64">
+        <v>456.9731954999988</v>
+      </c>
+      <c r="V64" t="s">
+        <v>139</v>
+      </c>
+      <c r="W64">
+        <v>235.8430072167952</v>
+      </c>
+      <c r="X64">
+        <v>217.8430072167952</v>
+      </c>
+      <c r="Y64">
+        <v>18</v>
+      </c>
+      <c r="Z64">
+        <v>18</v>
+      </c>
+      <c r="AA64">
+        <v>438</v>
+      </c>
+      <c r="AB64">
+        <v>6.703517040913586</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0.1234529786706381</v>
+      </c>
+      <c r="AF64">
+        <v>0.1234529786706381</v>
+      </c>
+      <c r="AG64">
+        <v>0.1140308056654033</v>
+      </c>
+      <c r="AI64">
+        <v>80.19358521567499</v>
+      </c>
+      <c r="AJ64">
+        <v>137.6494220011202</v>
+      </c>
+      <c r="AL64">
+        <v>37.77049180327869</v>
+      </c>
+      <c r="AM64">
+        <v>1568.132061997022</v>
+      </c>
+      <c r="AN64">
+        <v>342.2552754037533</v>
+      </c>
+      <c r="AO64">
+        <v>1910.387337400776</v>
+      </c>
+      <c r="AP64">
+        <v>887.7146236615458</v>
+      </c>
+      <c r="AQ64">
+        <v>1149.788779189257</v>
+      </c>
+      <c r="AR64">
+        <v>104.1831733375845</v>
+      </c>
+      <c r="AS64">
+        <v>152.9983439822451</v>
+      </c>
+      <c r="AT64">
+        <v>15.34892198112487</v>
+      </c>
+      <c r="AU64">
+        <v>133.6559753594583</v>
+      </c>
+      <c r="AV64">
+        <v>0</v>
+      </c>
+      <c r="AW64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:49">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65">
-        <v>0</v>
+      <c r="B65" t="s">
+        <v>49</v>
       </c>
       <c r="C65" t="s">
         <v>50</v>
@@ -4358,13 +10016,100 @@
       <c r="R65" t="s">
         <v>75</v>
       </c>
+      <c r="S65">
+        <v>248.340285092442</v>
+      </c>
+      <c r="T65">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U65">
+        <v>297.0237651000007</v>
+      </c>
+      <c r="V65" t="s">
+        <v>140</v>
+      </c>
+      <c r="W65">
+        <v>248.340285092442</v>
+      </c>
+      <c r="X65">
+        <v>230.340285092442</v>
+      </c>
+      <c r="Y65">
+        <v>18</v>
+      </c>
+      <c r="Z65">
+        <v>18</v>
+      </c>
+      <c r="AA65">
+        <v>438</v>
+      </c>
+      <c r="AB65">
+        <v>6.703517040913586</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0.1299835214926277</v>
+      </c>
+      <c r="AF65">
+        <v>0.1299835214926277</v>
+      </c>
+      <c r="AG65">
+        <v>0.1205621608543553</v>
+      </c>
+      <c r="AI65">
+        <v>93.03635088381778</v>
+      </c>
+      <c r="AJ65">
+        <v>137.3039342086242</v>
+      </c>
+      <c r="AL65">
+        <v>37.77049180327869</v>
+      </c>
+      <c r="AM65">
+        <v>1568.132061997022</v>
+      </c>
+      <c r="AN65">
+        <v>342.4200006082909</v>
+      </c>
+      <c r="AO65">
+        <v>1910.552062605313</v>
+      </c>
+      <c r="AP65">
+        <v>887.7146236615458</v>
+      </c>
+      <c r="AQ65">
+        <v>1148.112033048258</v>
+      </c>
+      <c r="AR65">
+        <v>102.0549211577714</v>
+      </c>
+      <c r="AS65">
+        <v>153.3748344192904</v>
+      </c>
+      <c r="AT65">
+        <v>16.07090021066622</v>
+      </c>
+      <c r="AU65">
+        <v>155.060584806363</v>
+      </c>
+      <c r="AV65">
+        <v>0</v>
+      </c>
+      <c r="AW65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:49">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66">
-        <v>0</v>
+      <c r="B66" t="s">
+        <v>49</v>
       </c>
       <c r="C66" t="s">
         <v>50</v>
@@ -4413,6 +10158,93 @@
       </c>
       <c r="R66" t="s">
         <v>76</v>
+      </c>
+      <c r="S66">
+        <v>244.8294552638804</v>
+      </c>
+      <c r="T66">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U66">
+        <v>149.2503706000007</v>
+      </c>
+      <c r="V66" t="s">
+        <v>141</v>
+      </c>
+      <c r="W66">
+        <v>244.8294552638804</v>
+      </c>
+      <c r="X66">
+        <v>226.8294552638804</v>
+      </c>
+      <c r="Y66">
+        <v>18</v>
+      </c>
+      <c r="Z66">
+        <v>18</v>
+      </c>
+      <c r="AA66">
+        <v>438</v>
+      </c>
+      <c r="AB66">
+        <v>6.703517040913586</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0.1281696864479857</v>
+      </c>
+      <c r="AF66">
+        <v>0.1281696864479857</v>
+      </c>
+      <c r="AG66">
+        <v>0.1187465786214491</v>
+      </c>
+      <c r="AI66">
+        <v>65.90818255680388</v>
+      </c>
+      <c r="AJ66">
+        <v>174.8414226140813</v>
+      </c>
+      <c r="AL66">
+        <v>37.77049180327869</v>
+      </c>
+      <c r="AM66">
+        <v>1568.132061997022</v>
+      </c>
+      <c r="AN66">
+        <v>342.0657550448259</v>
+      </c>
+      <c r="AO66">
+        <v>1910.197817041848</v>
+      </c>
+      <c r="AP66">
+        <v>887.7146236615458</v>
+      </c>
+      <c r="AQ66">
+        <v>1064.756448974</v>
+      </c>
+      <c r="AR66">
+        <v>24.30022772000731</v>
+      </c>
+      <c r="AS66">
+        <v>177.1090049200148</v>
+      </c>
+      <c r="AT66">
+        <v>2.267582305933531</v>
+      </c>
+      <c r="AU66">
+        <v>109.8469709280065</v>
+      </c>
+      <c r="AV66">
+        <v>82.09193696256165</v>
+      </c>
+      <c r="AW66">
+        <v>13.92014990700481</v>
       </c>
     </row>
   </sheetData>
